--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -2067,9 +2067,9 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -248,28 +248,28 @@
     <t>3057543683@qq.com</t>
   </si>
   <si>
-    <t>摄像头说的都队</t>
+    <t>独轮总能队</t>
+  </si>
+  <si>
+    <t>蔡智灏</t>
+  </si>
+  <si>
+    <t>2022电子1班</t>
+  </si>
+  <si>
+    <t>3127778480@qq.com</t>
+  </si>
+  <si>
+    <t>杨奕晟</t>
+  </si>
+  <si>
+    <t>1539726678@qq.com</t>
   </si>
   <si>
     <t>赵秀秀</t>
   </si>
   <si>
     <t>1596204817@qq.com</t>
-  </si>
-  <si>
-    <t>杨奕晟</t>
-  </si>
-  <si>
-    <t>2022电子1班</t>
-  </si>
-  <si>
-    <t>1539726678@qq.com</t>
-  </si>
-  <si>
-    <t>蔡智灏</t>
-  </si>
-  <si>
-    <t>3127778480@qq.com</t>
   </si>
   <si>
     <t>佩奇组</t>
@@ -313,10 +313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -383,17 +383,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,11 +405,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,11 +420,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,7 +452,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,46 +504,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,15 +519,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,61 +541,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,13 +703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,103 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,17 +833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,6 +881,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -904,6 +913,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -912,175 +930,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1099,9 +1099,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,9 +1120,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1146,9 +1140,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1725,332 +1716,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
     </row>
     <row r="2" ht="36" spans="1:18">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
     </row>
     <row r="3" ht="36" spans="1:18">
-      <c r="A3" s="28">
+      <c r="A3" s="25">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="25">
         <v>1</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
     </row>
     <row r="4" ht="36" spans="1:18">
-      <c r="A4" s="28">
+      <c r="A4" s="25">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="25">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
     </row>
     <row r="5" ht="36" spans="1:18">
-      <c r="A5" s="28">
+      <c r="A5" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="25">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
     </row>
     <row r="6" ht="36" spans="1:18">
-      <c r="A6" s="28">
+      <c r="A6" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="25">
         <v>1</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
     </row>
     <row r="7" ht="36" spans="1:18">
-      <c r="A7" s="28">
+      <c r="A7" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="25">
         <v>4</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
     </row>
     <row r="8" ht="36" spans="1:18">
-      <c r="A8" s="28">
+      <c r="A8" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="25">
         <v>3</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
     </row>
     <row r="9" ht="36" spans="1:18">
-      <c r="A9" s="28">
+      <c r="A9" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="25">
         <v>2</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="32"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="29"/>
+      <c r="R9" s="29"/>
     </row>
     <row r="10" ht="36" spans="1:18">
-      <c r="A10" s="28">
+      <c r="A10" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="25">
         <v>6</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="32"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
     </row>
     <row r="11" ht="36" spans="1:18">
-      <c r="A11" s="31"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="25">
         <v>21</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
     </row>
     <row r="12" ht="36" spans="1:18">
-      <c r="A12" s="32"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="29"/>
+      <c r="R12" s="29"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
+      <c r="Q13" s="29"/>
+      <c r="R13" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2067,9 +2058,9 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N10" sqref="N10"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -2099,7 +2090,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="18"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -2126,7 +2117,7 @@
       <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -2143,31 +2134,31 @@
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>18976848923</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2175,55 +2166,55 @@
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="4">
         <v>13909934072</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="4">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>2215376397</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
       <c r="A6" s="4">
@@ -2232,31 +2223,31 @@
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>15522999550</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2264,115 +2255,115 @@
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>18779680827</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>15933025353</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>2434897583</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>17786936509</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" ht="17.25" spans="1:11">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="4">
         <v>17373701992</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="4">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2380,117 +2371,117 @@
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="H11" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="4">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="24"/>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="4">
         <v>15865767711</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="4">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="24"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" ht="17.25" spans="1:11">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="4">
         <v>15055092005</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="4">
         <v>861146418</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:11">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="4">
         <v>17889769490</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="4">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="18"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
       <c r="A15" s="4">
@@ -2499,31 +2490,31 @@
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>19331731290</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>1903157075</v>
       </c>
-      <c r="K15" s="20" t="s">
+      <c r="K15" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2531,55 +2522,55 @@
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>15853951259</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>1259799962</v>
       </c>
-      <c r="K16" s="21"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" ht="17.25" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>18337021782</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>2413792492</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" ht="17.25" spans="1:11">
       <c r="A18" s="4">
@@ -2588,31 +2579,31 @@
       <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>18976534806</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>2106777958</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2620,28 +2611,28 @@
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="4">
         <v>15348851215</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="4">
         <v>3057543683</v>
       </c>
-      <c r="K19" s="21"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" ht="17.25" spans="1:11">
       <c r="A20" s="4">
@@ -2650,31 +2641,31 @@
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H20" s="6">
-        <v>18733822578</v>
-      </c>
-      <c r="I20" s="7" t="s">
+      <c r="F20" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="J20" s="6">
-        <v>1596204817</v>
-      </c>
-      <c r="K20" s="20" t="s">
+      <c r="G20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4">
+        <v>18990689551</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3127778480</v>
+      </c>
+      <c r="K20" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2682,198 +2673,198 @@
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="6" t="s">
+      <c r="F21" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="4">
         <v>13732966876</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="4">
         <v>1539726678</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="19"/>
     </row>
     <row r="22" ht="17.25" spans="1:11">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="6" t="s">
+      <c r="F22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="4">
+        <v>18733822578</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" s="4">
+        <v>1596204817</v>
+      </c>
+      <c r="K22" s="19"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:11">
+      <c r="A23" s="11">
+        <v>8</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="6">
-        <v>18990689551</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="6">
-        <v>3127778480</v>
-      </c>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" ht="17.25" spans="1:11">
-      <c r="A23" s="12">
-        <v>8</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="15" t="s">
+      <c r="H23" s="4">
+        <v>15197637933</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3070167413</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:11">
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="6">
-        <v>15197637933</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="6">
-        <v>3070167413</v>
-      </c>
-      <c r="K23" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" ht="17.25" spans="1:11">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="15" t="s">
+      <c r="H24" s="4">
+        <v>18907637842</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J24" s="4">
+        <v>2902413207</v>
+      </c>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" ht="17.25" spans="1:11">
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="6">
-        <v>18907637842</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="J24" s="6">
-        <v>2902413207</v>
-      </c>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" ht="17.25" spans="1:11">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25" s="15" t="s">
+      <c r="H25" s="4">
+        <v>18889900903</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1604088171</v>
+      </c>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" ht="17.25" spans="1:11">
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F26" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="6">
-        <v>18889900903</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1604088171</v>
-      </c>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" ht="17.25" spans="1:11">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="H26" s="4">
+        <v>18436187870</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="4">
+        <v>3182811175</v>
+      </c>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" ht="17.25" spans="1:11">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F27" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="6">
-        <v>18436187870</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J26" s="6">
-        <v>3182811175</v>
-      </c>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" ht="17.25" spans="1:11">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="6">
+      <c r="H27" s="4">
         <v>17700956685</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="4">
         <v>2270032682</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2907,23 +2898,23 @@
     <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
     <hyperlink ref="I7" r:id="rId2" display="1976640167@qq.com" tooltip="mailto:1976640167@qq.com"/>
     <hyperlink ref="I8" r:id="rId3" display="2434897583@qq.com" tooltip="mailto:2434897583@qq.com"/>
-    <hyperlink ref="I20" r:id="rId4" display="1596204817@qq.com"/>
-    <hyperlink ref="I21" r:id="rId5" display="1539726678@qq.com"/>
-    <hyperlink ref="I22" r:id="rId6" display="3127778480@qq.com"/>
-    <hyperlink ref="I15" r:id="rId7" display="19331731290@163.com"/>
-    <hyperlink ref="I16" r:id="rId8" display="1259799962@qq.com"/>
-    <hyperlink ref="I17" r:id="rId9" display="18337021782@163.com"/>
-    <hyperlink ref="I13" r:id="rId10" display="861146418@qq.com"/>
-    <hyperlink ref="I14" r:id="rId11" display="2904835056@qq.com"/>
-    <hyperlink ref="I23" r:id="rId12" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="J23" r:id="rId12" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="I24" r:id="rId13" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
-    <hyperlink ref="I25" r:id="rId14" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
-    <hyperlink ref="I3" r:id="rId15" display="3205223928@qq.com"/>
-    <hyperlink ref="I10" r:id="rId16" display="1469444875@qq.com"/>
-    <hyperlink ref="I11" r:id="rId17" display="2763142268@qq.com"/>
-    <hyperlink ref="I12" r:id="rId18" display="2856427359@qq.com"/>
-    <hyperlink ref="I26" r:id="rId19" display="3182811175@qq.com"/>
+    <hyperlink ref="I21" r:id="rId4" display="1539726678@qq.com"/>
+    <hyperlink ref="I15" r:id="rId5" display="19331731290@163.com"/>
+    <hyperlink ref="I16" r:id="rId6" display="1259799962@qq.com"/>
+    <hyperlink ref="I17" r:id="rId7" display="18337021782@163.com"/>
+    <hyperlink ref="I13" r:id="rId8" display="861146418@qq.com"/>
+    <hyperlink ref="I14" r:id="rId9" display="2904835056@qq.com"/>
+    <hyperlink ref="I23" r:id="rId10" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="J23" r:id="rId10" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="I24" r:id="rId11" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
+    <hyperlink ref="I25" r:id="rId12" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
+    <hyperlink ref="I3" r:id="rId13" display="3205223928@qq.com"/>
+    <hyperlink ref="I10" r:id="rId14" display="1469444875@qq.com"/>
+    <hyperlink ref="I11" r:id="rId15" display="2763142268@qq.com"/>
+    <hyperlink ref="I12" r:id="rId16" display="2856427359@qq.com"/>
+    <hyperlink ref="I26" r:id="rId17" display="3182811175@qq.com"/>
+    <hyperlink ref="I20" r:id="rId18" display="3127778480@qq.com"/>
+    <hyperlink ref="I22" r:id="rId19" display="1596204817@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -119,27 +119,27 @@
     <t>2157646685@qq.com</t>
   </si>
   <si>
-    <t>张祖铭</t>
+    <t>傅琦玮</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 电子信息</t>
+  </si>
+  <si>
+    <t>2022电子1班</t>
+  </si>
+  <si>
+    <t>1029867213@qq.com</t>
+  </si>
+  <si>
+    <t>洛圣都保安2队</t>
+  </si>
+  <si>
+    <t>魏郡辰</t>
   </si>
   <si>
     <t>电子信息</t>
   </si>
   <si>
-    <t>23级电子2班</t>
-  </si>
-  <si>
-    <t>18789781808</t>
-  </si>
-  <si>
-    <t>2215376397@qq.com</t>
-  </si>
-  <si>
-    <t>洛圣都保安2队</t>
-  </si>
-  <si>
-    <t>魏郡辰</t>
-  </si>
-  <si>
     <t>2022电子2班</t>
   </si>
   <si>
@@ -236,9 +236,6 @@
     <t>张艺鹏</t>
   </si>
   <si>
-    <t>21级自动化一班</t>
-  </si>
-  <si>
     <t>2106777958@qq.com</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
   </si>
   <si>
     <t>蔡智灏</t>
-  </si>
-  <si>
-    <t>2022电子1班</t>
   </si>
   <si>
     <t>3127778480@qq.com</t>
@@ -314,9 +308,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -382,6 +376,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -390,15 +392,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -428,22 +438,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -465,37 +459,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -506,6 +469,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,6 +511,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -547,97 +541,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,79 +697,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,6 +827,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -852,21 +876,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -877,36 +886,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,153 +909,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2058,16 +2052,16 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="8.125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="9.875" customWidth="1"/>
     <col min="6" max="6" width="16.875" customWidth="1"/>
     <col min="7" max="7" width="6.625" customWidth="1"/>
@@ -2205,14 +2199,14 @@
       <c r="G5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="4">
+        <v>18379028720</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="J5" s="4">
-        <v>2215376397</v>
+        <v>1029867213</v>
       </c>
       <c r="K5" s="18"/>
     </row>
@@ -2224,13 +2218,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="13" t="s">
         <v>41</v>
@@ -2259,7 +2253,7 @@
         <v>43</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>41</v>
@@ -2286,7 +2280,7 @@
         <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="13" t="s">
         <v>41</v>
@@ -2313,7 +2307,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>41</v>
@@ -2589,7 +2583,7 @@
         <v>25</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>27</v>
@@ -2598,7 +2592,7 @@
         <v>18976534806</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J18" s="4">
         <v>2106777958</v>
@@ -2612,13 +2606,13 @@
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>27</v>
@@ -2627,7 +2621,7 @@
         <v>15348851215</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="4">
         <v>3057543683</v>
@@ -2642,16 +2636,16 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="E20" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>27</v>
@@ -2660,7 +2654,7 @@
         <v>18990689551</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J20" s="4">
         <v>3127778480</v>
@@ -2674,13 +2668,13 @@
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>27</v>
@@ -2689,7 +2683,7 @@
         <v>13732966876</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J21" s="4">
         <v>1539726678</v>
@@ -2701,10 +2695,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F22" s="13" t="s">
         <v>41</v>
@@ -2716,7 +2710,7 @@
         <v>18733822578</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J22" s="4">
         <v>1596204817</v>
@@ -2731,16 +2725,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>27</v>
@@ -2749,7 +2743,7 @@
         <v>15197637933</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J23" s="4">
         <v>3070167413</v>
@@ -2763,13 +2757,13 @@
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>27</v>
@@ -2778,7 +2772,7 @@
         <v>18907637842</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J24" s="4">
         <v>2902413207</v>
@@ -2790,13 +2784,13 @@
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>27</v>
@@ -2805,7 +2799,7 @@
         <v>18889900903</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J25" s="4">
         <v>1604088171</v>
@@ -2817,13 +2811,13 @@
       <c r="B26" s="15"/>
       <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>27</v>
@@ -2832,7 +2826,7 @@
         <v>18436187870</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J26" s="4">
         <v>3182811175</v>
@@ -2844,13 +2838,13 @@
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>27</v>
@@ -2859,7 +2853,7 @@
         <v>17700956685</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J27" s="4">
         <v>2270032682</v>
@@ -2915,6 +2909,7 @@
     <hyperlink ref="I26" r:id="rId17" display="3182811175@qq.com"/>
     <hyperlink ref="I20" r:id="rId18" display="3127778480@qq.com"/>
     <hyperlink ref="I22" r:id="rId19" display="1596204817@qq.com"/>
+    <hyperlink ref="I5" r:id="rId20" display="1029867213@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -152,10 +152,16 @@
     <t>1976640167@qq.com</t>
   </si>
   <si>
-    <t>赵佳琳</t>
-  </si>
-  <si>
-    <t>2434897583@qq.com</t>
+    <t>邓磊镗</t>
+  </si>
+  <si>
+    <t>光电</t>
+  </si>
+  <si>
+    <t>2022数物信13班</t>
+  </si>
+  <si>
+    <t>2854908154@qq.com</t>
   </si>
   <si>
     <t>王雨蒙</t>
@@ -307,10 +313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -384,26 +390,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,50 +403,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,19 +421,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -498,7 +444,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,12 +481,50 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -535,109 +541,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,73 +721,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,17 +833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,8 +859,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -871,6 +873,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,182 +930,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2054,7 +2060,7 @@
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C22"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -2280,22 +2286,22 @@
         <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>41</v>
+        <v>46</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H8" s="6">
-        <v>15933025353</v>
+        <v>15914897361</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J8" s="6">
-        <v>2434897583</v>
+        <v>2854908154</v>
       </c>
       <c r="K8" s="19"/>
     </row>
@@ -2304,7 +2310,7 @@
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>40</v>
@@ -2319,7 +2325,7 @@
         <v>17786936509</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" s="6">
         <v>3474583090</v>
@@ -2334,16 +2340,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>27</v>
@@ -2352,7 +2358,7 @@
         <v>17373701992</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J10" s="4">
         <v>1469444875</v>
@@ -2366,22 +2372,22 @@
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J11" s="4">
         <v>2763142268</v>
@@ -2393,13 +2399,13 @@
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>27</v>
@@ -2408,7 +2414,7 @@
         <v>15865767711</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J12" s="4">
         <v>2856427359</v>
@@ -2423,16 +2429,16 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>27</v>
@@ -2441,7 +2447,7 @@
         <v>15055092005</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J13" s="4">
         <v>861146418</v>
@@ -2455,13 +2461,13 @@
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>27</v>
@@ -2470,7 +2476,7 @@
         <v>17889769490</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J14" s="4">
         <v>2904835056</v>
@@ -2485,16 +2491,16 @@
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>27</v>
@@ -2503,7 +2509,7 @@
         <v>19331731290</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J15" s="6">
         <v>1903157075</v>
@@ -2517,13 +2523,13 @@
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
       <c r="D16" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>27</v>
@@ -2532,7 +2538,7 @@
         <v>15853951259</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J16" s="6">
         <v>1259799962</v>
@@ -2544,13 +2550,13 @@
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>27</v>
@@ -2559,7 +2565,7 @@
         <v>18337021782</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J17" s="6">
         <v>2413792492</v>
@@ -2574,16 +2580,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>27</v>
@@ -2592,7 +2598,7 @@
         <v>18976534806</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J18" s="4">
         <v>2106777958</v>
@@ -2606,13 +2612,13 @@
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>27</v>
@@ -2621,7 +2627,7 @@
         <v>15348851215</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J19" s="4">
         <v>3057543683</v>
@@ -2636,10 +2642,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>40</v>
@@ -2654,7 +2660,7 @@
         <v>18990689551</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J20" s="4">
         <v>3127778480</v>
@@ -2668,7 +2674,7 @@
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>40</v>
@@ -2683,7 +2689,7 @@
         <v>13732966876</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J21" s="4">
         <v>1539726678</v>
@@ -2695,7 +2701,7 @@
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>40</v>
@@ -2710,7 +2716,7 @@
         <v>18733822578</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J22" s="4">
         <v>1596204817</v>
@@ -2725,16 +2731,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G23" s="13" t="s">
         <v>27</v>
@@ -2743,7 +2749,7 @@
         <v>15197637933</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J23" s="4">
         <v>3070167413</v>
@@ -2757,13 +2763,13 @@
       <c r="B24" s="15"/>
       <c r="C24" s="14"/>
       <c r="D24" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E24" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>27</v>
@@ -2772,7 +2778,7 @@
         <v>18907637842</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J24" s="4">
         <v>2902413207</v>
@@ -2784,13 +2790,13 @@
       <c r="B25" s="15"/>
       <c r="C25" s="14"/>
       <c r="D25" s="13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>27</v>
@@ -2799,7 +2805,7 @@
         <v>18889900903</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J25" s="4">
         <v>1604088171</v>
@@ -2811,13 +2817,13 @@
       <c r="B26" s="15"/>
       <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>27</v>
@@ -2826,7 +2832,7 @@
         <v>18436187870</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J26" s="4">
         <v>3182811175</v>
@@ -2838,13 +2844,13 @@
       <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>27</v>
@@ -2853,7 +2859,7 @@
         <v>17700956685</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J27" s="4">
         <v>2270032682</v>
@@ -2891,25 +2897,25 @@
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
     <hyperlink ref="I7" r:id="rId2" display="1976640167@qq.com" tooltip="mailto:1976640167@qq.com"/>
-    <hyperlink ref="I8" r:id="rId3" display="2434897583@qq.com" tooltip="mailto:2434897583@qq.com"/>
-    <hyperlink ref="I21" r:id="rId4" display="1539726678@qq.com"/>
-    <hyperlink ref="I15" r:id="rId5" display="19331731290@163.com"/>
-    <hyperlink ref="I16" r:id="rId6" display="1259799962@qq.com"/>
-    <hyperlink ref="I17" r:id="rId7" display="18337021782@163.com"/>
-    <hyperlink ref="I13" r:id="rId8" display="861146418@qq.com"/>
-    <hyperlink ref="I14" r:id="rId9" display="2904835056@qq.com"/>
-    <hyperlink ref="I23" r:id="rId10" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="J23" r:id="rId10" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="I24" r:id="rId11" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
-    <hyperlink ref="I25" r:id="rId12" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
-    <hyperlink ref="I3" r:id="rId13" display="3205223928@qq.com"/>
-    <hyperlink ref="I10" r:id="rId14" display="1469444875@qq.com"/>
-    <hyperlink ref="I11" r:id="rId15" display="2763142268@qq.com"/>
-    <hyperlink ref="I12" r:id="rId16" display="2856427359@qq.com"/>
-    <hyperlink ref="I26" r:id="rId17" display="3182811175@qq.com"/>
-    <hyperlink ref="I20" r:id="rId18" display="3127778480@qq.com"/>
-    <hyperlink ref="I22" r:id="rId19" display="1596204817@qq.com"/>
-    <hyperlink ref="I5" r:id="rId20" display="1029867213@qq.com"/>
+    <hyperlink ref="I21" r:id="rId3" display="1539726678@qq.com"/>
+    <hyperlink ref="I15" r:id="rId4" display="19331731290@163.com"/>
+    <hyperlink ref="I16" r:id="rId5" display="1259799962@qq.com"/>
+    <hyperlink ref="I17" r:id="rId6" display="18337021782@163.com"/>
+    <hyperlink ref="I13" r:id="rId7" display="861146418@qq.com"/>
+    <hyperlink ref="I14" r:id="rId8" display="2904835056@qq.com"/>
+    <hyperlink ref="I23" r:id="rId9" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="J23" r:id="rId9" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="I24" r:id="rId10" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
+    <hyperlink ref="I25" r:id="rId11" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
+    <hyperlink ref="I3" r:id="rId12" display="3205223928@qq.com"/>
+    <hyperlink ref="I10" r:id="rId13" display="1469444875@qq.com"/>
+    <hyperlink ref="I11" r:id="rId14" display="2763142268@qq.com"/>
+    <hyperlink ref="I12" r:id="rId15" display="2856427359@qq.com"/>
+    <hyperlink ref="I26" r:id="rId16" display="3182811175@qq.com"/>
+    <hyperlink ref="I20" r:id="rId17" display="3127778480@qq.com"/>
+    <hyperlink ref="I22" r:id="rId18" display="1596204817@qq.com"/>
+    <hyperlink ref="I5" r:id="rId19" display="1029867213@qq.com"/>
+    <hyperlink ref="I8" r:id="rId20" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>3057543683@qq.com</t>
+  </si>
+  <si>
+    <t>陈楠锦</t>
+  </si>
+  <si>
+    <t>1392232887@qq.com</t>
   </si>
   <si>
     <t>独轮总能队</t>
@@ -313,12 +319,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -358,6 +364,12 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -391,6 +403,44 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -398,8 +448,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -415,14 +479,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,21 +493,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -458,10 +508,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -480,51 +531,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -541,19 +553,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,49 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,109 +733,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,6 +855,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -859,17 +886,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -877,26 +893,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,17 +923,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -935,152 +947,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1114,13 +1126,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1147,31 +1162,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1716,332 +1731,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" ht="36" spans="1:18">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" ht="36" spans="1:18">
-      <c r="A3" s="25">
+      <c r="A3" s="26">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="26">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" ht="36" spans="1:18">
-      <c r="A4" s="25">
+      <c r="A4" s="26">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="26">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" ht="36" spans="1:18">
-      <c r="A5" s="25">
+      <c r="A5" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" ht="36" spans="1:18">
-      <c r="A6" s="25">
+      <c r="A6" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" ht="36" spans="1:18">
-      <c r="A7" s="25">
+      <c r="A7" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="26">
         <v>4</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" ht="36" spans="1:18">
-      <c r="A8" s="25">
+      <c r="A8" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="26">
         <v>3</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" ht="36" spans="1:18">
-      <c r="A9" s="25">
+      <c r="A9" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="26">
         <v>2</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" ht="36" spans="1:18">
-      <c r="A10" s="25">
+      <c r="A10" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="26">
         <v>6</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" ht="36" spans="1:18">
-      <c r="A11" s="28"/>
-      <c r="B11" s="25" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="26">
         <v>21</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
     <row r="12" ht="36" spans="1:18">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2055,12 +2070,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -2090,7 +2105,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="16"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -2117,7 +2132,7 @@
       <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -2143,7 +2158,7 @@
       <c r="E3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -2158,7 +2173,7 @@
       <c r="J3" s="4">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2172,7 +2187,7 @@
       <c r="E4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2187,7 +2202,7 @@
       <c r="J4" s="4">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="18"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
       <c r="A5" s="4"/>
@@ -2199,7 +2214,7 @@
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -2214,7 +2229,7 @@
       <c r="J5" s="4">
         <v>1029867213</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
       <c r="A6" s="4">
@@ -2232,7 +2247,7 @@
       <c r="E6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -2247,7 +2262,7 @@
       <c r="J6" s="6">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2261,7 +2276,7 @@
       <c r="E7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -2276,7 +2291,7 @@
       <c r="J7" s="6">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="19"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
       <c r="A8" s="4"/>
@@ -2288,7 +2303,7 @@
       <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="14" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2303,7 +2318,7 @@
       <c r="J8" s="6">
         <v>2854908154</v>
       </c>
-      <c r="K8" s="19"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
       <c r="A9" s="4"/>
@@ -2315,7 +2330,7 @@
       <c r="E9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2330,7 +2345,7 @@
       <c r="J9" s="6">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="19"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="17.25" spans="1:11">
       <c r="A10" s="7">
@@ -2348,7 +2363,7 @@
       <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="4" t="s">
@@ -2363,7 +2378,7 @@
       <c r="J10" s="4">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2377,13 +2392,13 @@
       <c r="E11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="32" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2392,7 +2407,7 @@
       <c r="J11" s="4">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="21"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
       <c r="A12" s="4"/>
@@ -2404,7 +2419,7 @@
       <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G12" s="4" t="s">
@@ -2419,7 +2434,7 @@
       <c r="J12" s="4">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" ht="17.25" spans="1:11">
       <c r="A13" s="10">
@@ -2437,7 +2452,7 @@
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G13" s="4" t="s">
@@ -2452,7 +2467,7 @@
       <c r="J13" s="4">
         <v>861146418</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2466,7 +2481,7 @@
       <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -2481,7 +2496,7 @@
       <c r="J14" s="4">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
       <c r="A15" s="4">
@@ -2499,7 +2514,7 @@
       <c r="E15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -2514,7 +2529,7 @@
       <c r="J15" s="6">
         <v>1903157075</v>
       </c>
-      <c r="K15" s="18" t="s">
+      <c r="K15" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2528,7 +2543,7 @@
       <c r="E16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -2543,7 +2558,7 @@
       <c r="J16" s="6">
         <v>1259799962</v>
       </c>
-      <c r="K16" s="19"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" ht="17.25" spans="1:11">
       <c r="A17" s="4"/>
@@ -2555,7 +2570,7 @@
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>67</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -2570,7 +2585,7 @@
       <c r="J17" s="6">
         <v>2413792492</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" ht="17.25" spans="1:11">
       <c r="A18" s="4">
@@ -2588,7 +2603,7 @@
       <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -2603,7 +2618,7 @@
       <c r="J18" s="4">
         <v>2106777958</v>
       </c>
-      <c r="K18" s="18" t="s">
+      <c r="K18" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2617,7 +2632,7 @@
       <c r="E19" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>53</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -2635,66 +2650,66 @@
       <c r="K19" s="19"/>
     </row>
     <row r="20" ht="17.25" spans="1:11">
-      <c r="A20" s="4">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="11">
+        <v>18948563613</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1392232887</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" ht="17.25" spans="1:11">
+      <c r="A21" s="4">
         <v>7</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="4">
-        <v>18990689551</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="4">
-        <v>3127778480</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" ht="17.25" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H21" s="4">
-        <v>13732966876</v>
+        <v>18990689551</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>82</v>
       </c>
       <c r="J21" s="4">
-        <v>1539726678</v>
-      </c>
-      <c r="K21" s="19"/>
+        <v>3127778480</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" ht="17.25" spans="1:11">
       <c r="A22" s="4"/>
@@ -2706,165 +2721,192 @@
       <c r="E22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="13" t="s">
-        <v>41</v>
+      <c r="F22" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H22" s="4">
-        <v>18733822578</v>
+        <v>13732966876</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>84</v>
       </c>
       <c r="J22" s="4">
+        <v>1539726678</v>
+      </c>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" ht="17.25" spans="1:11">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="4">
+        <v>18733822578</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="4">
         <v>1596204817</v>
       </c>
-      <c r="K22" s="19"/>
-    </row>
-    <row r="23" ht="17.25" spans="1:11">
-      <c r="A23" s="11">
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:11">
+      <c r="A24" s="12">
         <v>8</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C24" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="F24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>15197637933</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="J23" s="4">
-        <v>3070167413</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" ht="17.25" spans="1:11">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="4">
-        <v>18907637842</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J24" s="4">
-        <v>2902413207</v>
-      </c>
-      <c r="K24" s="22"/>
+        <v>3070167413</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" ht="17.25" spans="1:11">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="13" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="F25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="4">
-        <v>18889900903</v>
+        <v>18907637842</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>92</v>
       </c>
       <c r="J25" s="4">
-        <v>1604088171</v>
-      </c>
-      <c r="K25" s="18"/>
+        <v>2902413207</v>
+      </c>
+      <c r="K25" s="23"/>
     </row>
     <row r="26" ht="17.25" spans="1:11">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="4" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="4">
-        <v>18436187870</v>
+        <v>18889900903</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>94</v>
       </c>
       <c r="J26" s="4">
-        <v>3182811175</v>
-      </c>
-      <c r="K26" s="18"/>
+        <v>1604088171</v>
+      </c>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" ht="17.25" spans="1:11">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="7"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="13" t="s">
-        <v>87</v>
+      <c r="F27" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="4">
-        <v>17700956685</v>
+        <v>18436187870</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>96</v>
       </c>
       <c r="J27" s="4">
+        <v>3182811175</v>
+      </c>
+      <c r="K27" s="19"/>
+    </row>
+    <row r="28" ht="17.25" spans="1:11">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" s="4">
+        <v>17700956685</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="4">
         <v>2270032682</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K28" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2874,48 +2916,49 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
     <hyperlink ref="I7" r:id="rId2" display="1976640167@qq.com" tooltip="mailto:1976640167@qq.com"/>
-    <hyperlink ref="I21" r:id="rId3" display="1539726678@qq.com"/>
+    <hyperlink ref="I22" r:id="rId3" display="1539726678@qq.com"/>
     <hyperlink ref="I15" r:id="rId4" display="19331731290@163.com"/>
     <hyperlink ref="I16" r:id="rId5" display="1259799962@qq.com"/>
     <hyperlink ref="I17" r:id="rId6" display="18337021782@163.com"/>
     <hyperlink ref="I13" r:id="rId7" display="861146418@qq.com"/>
     <hyperlink ref="I14" r:id="rId8" display="2904835056@qq.com"/>
-    <hyperlink ref="I23" r:id="rId9" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="J23" r:id="rId9" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="I24" r:id="rId10" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
-    <hyperlink ref="I25" r:id="rId11" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
+    <hyperlink ref="I24" r:id="rId9" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="J24" r:id="rId9" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="I25" r:id="rId10" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
+    <hyperlink ref="I26" r:id="rId11" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
     <hyperlink ref="I3" r:id="rId12" display="3205223928@qq.com"/>
     <hyperlink ref="I10" r:id="rId13" display="1469444875@qq.com"/>
     <hyperlink ref="I11" r:id="rId14" display="2763142268@qq.com"/>
     <hyperlink ref="I12" r:id="rId15" display="2856427359@qq.com"/>
-    <hyperlink ref="I26" r:id="rId16" display="3182811175@qq.com"/>
-    <hyperlink ref="I20" r:id="rId17" display="3127778480@qq.com"/>
-    <hyperlink ref="I22" r:id="rId18" display="1596204817@qq.com"/>
+    <hyperlink ref="I27" r:id="rId16" display="3182811175@qq.com"/>
+    <hyperlink ref="I21" r:id="rId17" display="3127778480@qq.com"/>
+    <hyperlink ref="I23" r:id="rId18" display="1596204817@qq.com"/>
     <hyperlink ref="I5" r:id="rId19" display="1029867213@qq.com"/>
     <hyperlink ref="I8" r:id="rId20" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
+    <hyperlink ref="I20" r:id="rId21" display="1392232887@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -210,6 +210,15 @@
   </si>
   <si>
     <t>2904835056@qq.com</t>
+  </si>
+  <si>
+    <t>李叶雨</t>
+  </si>
+  <si>
+    <t>2023级物电类5班</t>
+  </si>
+  <si>
+    <t>1281381039@qq.com</t>
   </si>
   <si>
     <t>啊对对队</t>
@@ -319,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -402,11 +411,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -417,48 +425,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,14 +438,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,6 +456,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -501,8 +502,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -523,16 +540,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,25 +562,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,151 +670,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,16 +864,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -884,30 +904,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -923,6 +919,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -931,158 +951,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1092,7 +1101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1142,6 +1151,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1731,332 +1743,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" ht="36" spans="1:18">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
     </row>
     <row r="3" ht="36" spans="1:18">
-      <c r="A3" s="26">
+      <c r="A3" s="27">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="27">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
     </row>
     <row r="4" ht="36" spans="1:18">
-      <c r="A4" s="26">
+      <c r="A4" s="27">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="27">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
     </row>
     <row r="5" ht="36" spans="1:18">
-      <c r="A5" s="26">
+      <c r="A5" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="27">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
     </row>
     <row r="6" ht="36" spans="1:18">
-      <c r="A6" s="26">
+      <c r="A6" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="27">
         <v>1</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
     </row>
     <row r="7" ht="36" spans="1:18">
-      <c r="A7" s="26">
+      <c r="A7" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="27">
         <v>4</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
     </row>
     <row r="8" ht="36" spans="1:18">
-      <c r="A8" s="26">
+      <c r="A8" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="27">
         <v>3</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
     </row>
     <row r="9" ht="36" spans="1:18">
-      <c r="A9" s="26">
+      <c r="A9" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="27">
         <v>2</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
     </row>
     <row r="10" ht="36" spans="1:18">
-      <c r="A10" s="26">
+      <c r="A10" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="27">
         <v>6</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
     </row>
     <row r="11" ht="36" spans="1:18">
-      <c r="A11" s="29"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="30"/>
+      <c r="B11" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="27">
         <v>21</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
     </row>
     <row r="12" ht="36" spans="1:18">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2070,12 +2082,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -2105,7 +2117,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="17"/>
+      <c r="K1" s="18"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -2132,7 +2144,7 @@
       <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -2173,7 +2185,7 @@
       <c r="J3" s="4">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2202,7 +2214,7 @@
       <c r="J4" s="4">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="19"/>
+      <c r="K4" s="20"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
       <c r="A5" s="4"/>
@@ -2229,7 +2241,7 @@
       <c r="J5" s="4">
         <v>1029867213</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="20"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
       <c r="A6" s="4">
@@ -2262,7 +2274,7 @@
       <c r="J6" s="6">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2291,7 +2303,7 @@
       <c r="J7" s="6">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="20"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
       <c r="A8" s="4"/>
@@ -2318,7 +2330,7 @@
       <c r="J8" s="6">
         <v>2854908154</v>
       </c>
-      <c r="K8" s="20"/>
+      <c r="K8" s="21"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
       <c r="A9" s="4"/>
@@ -2345,7 +2357,7 @@
       <c r="J9" s="6">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="20"/>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" ht="17.25" spans="1:11">
       <c r="A10" s="7">
@@ -2378,7 +2390,7 @@
       <c r="J10" s="4">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="22" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2398,7 +2410,7 @@
       <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="33" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2407,7 +2419,7 @@
       <c r="J11" s="4">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="23"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
       <c r="A12" s="4"/>
@@ -2434,7 +2446,7 @@
       <c r="J12" s="4">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="23"/>
     </row>
     <row r="13" ht="17.25" spans="1:11">
       <c r="A13" s="10">
@@ -2467,7 +2479,7 @@
       <c r="J13" s="4">
         <v>861146418</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="20" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2496,47 +2508,45 @@
       <c r="J14" s="4">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="19"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
-      <c r="A15" s="4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="17">
+        <v>13524744272</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1281381039</v>
+      </c>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" ht="17.25" spans="1:11">
+      <c r="A16" s="4">
         <v>5</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="6">
-        <v>19331731290</v>
-      </c>
-      <c r="I15" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="6">
-        <v>1903157075</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="17.25" spans="1:11">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="4"/>
       <c r="D16" s="6" t="s">
         <v>69</v>
       </c>
@@ -2544,90 +2554,90 @@
         <v>25</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H16" s="6">
-        <v>15853951259</v>
+        <v>19331731290</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J16" s="6">
-        <v>1259799962</v>
-      </c>
-      <c r="K16" s="20"/>
+        <v>1903157075</v>
+      </c>
+      <c r="K16" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" ht="17.25" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H17" s="6">
+        <v>15853951259</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1259799962</v>
+      </c>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" ht="17.25" spans="1:11">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="6">
         <v>18337021782</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="I18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="6">
         <v>2413792492</v>
       </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" ht="17.25" spans="1:11">
-      <c r="A18" s="4">
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" ht="17.25" spans="1:11">
+      <c r="A19" s="4">
         <v>6</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="4">
-        <v>18976534806</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J18" s="4">
-        <v>2106777958</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" ht="17.25" spans="1:11">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="D19" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>25</v>
@@ -2639,84 +2649,84 @@
         <v>27</v>
       </c>
       <c r="H19" s="4">
-        <v>15348851215</v>
+        <v>18976534806</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J19" s="4">
-        <v>3057543683</v>
-      </c>
-      <c r="K19" s="19"/>
+        <v>2106777958</v>
+      </c>
+      <c r="K19" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="20" ht="17.25" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="4">
+        <v>15348851215</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="4">
+        <v>3057543683</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" ht="17.25" spans="1:11">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <v>18948563613</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="11">
-        <v>1392232887</v>
-      </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" ht="17.25" spans="1:11">
-      <c r="A21" s="4">
-        <v>7</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="4">
-        <v>18990689551</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="4">
-        <v>3127778480</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>29</v>
-      </c>
+      <c r="J21" s="11">
+        <v>1392232887</v>
+      </c>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" ht="17.25" spans="1:11">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="4">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="D22" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>40</v>
@@ -2728,82 +2738,82 @@
         <v>27</v>
       </c>
       <c r="H22" s="4">
-        <v>13732966876</v>
+        <v>18990689551</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J22" s="4">
-        <v>1539726678</v>
-      </c>
-      <c r="K22" s="20"/>
+        <v>3127778480</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" ht="17.25" spans="1:11">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F23" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="4">
+        <v>13732966876</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1539726678</v>
+      </c>
+      <c r="K23" s="21"/>
+    </row>
+    <row r="24" ht="17.25" spans="1:11">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H24" s="4">
         <v>18733822578</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="I24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="4">
         <v>1596204817</v>
       </c>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" ht="17.25" spans="1:11">
-      <c r="A24" s="12">
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" ht="17.25" spans="1:11">
+      <c r="A25" s="12">
         <v>8</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B25" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="4">
-        <v>15197637933</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="C25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J24" s="4">
-        <v>3070167413</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" ht="17.25" spans="1:11">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="15"/>
       <c r="D25" s="14" t="s">
         <v>91</v>
       </c>
@@ -2811,102 +2821,131 @@
         <v>25</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H25" s="4">
-        <v>18907637842</v>
+        <v>15197637933</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J25" s="4">
-        <v>2902413207</v>
-      </c>
-      <c r="K25" s="23"/>
+        <v>3070167413</v>
+      </c>
+      <c r="K25" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="26" ht="17.25" spans="1:11">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
       <c r="D26" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H26" s="4">
-        <v>18889900903</v>
+        <v>18907637842</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J26" s="4">
-        <v>1604088171</v>
-      </c>
-      <c r="K26" s="19"/>
+        <v>2902413207</v>
+      </c>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" ht="17.25" spans="1:11">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="15"/>
-      <c r="D27" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E27" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>27</v>
       </c>
       <c r="H27" s="4">
-        <v>18436187870</v>
+        <v>18889900903</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J27" s="4">
-        <v>3182811175</v>
-      </c>
-      <c r="K27" s="19"/>
+        <v>1604088171</v>
+      </c>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" ht="17.25" spans="1:11">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>27</v>
       </c>
       <c r="H28" s="4">
+        <v>18436187870</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3182811175</v>
+      </c>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" ht="17.25" spans="1:11">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" s="4">
         <v>17700956685</v>
       </c>
-      <c r="I28" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="I29" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J29" s="4">
         <v>2270032682</v>
       </c>
-      <c r="K28" s="19"/>
+      <c r="K29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2914,51 +2953,52 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A29"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B25:B29"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C29"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
     <hyperlink ref="I7" r:id="rId2" display="1976640167@qq.com" tooltip="mailto:1976640167@qq.com"/>
-    <hyperlink ref="I22" r:id="rId3" display="1539726678@qq.com"/>
-    <hyperlink ref="I15" r:id="rId4" display="19331731290@163.com"/>
-    <hyperlink ref="I16" r:id="rId5" display="1259799962@qq.com"/>
-    <hyperlink ref="I17" r:id="rId6" display="18337021782@163.com"/>
+    <hyperlink ref="I23" r:id="rId3" display="1539726678@qq.com"/>
+    <hyperlink ref="I16" r:id="rId4" display="19331731290@163.com"/>
+    <hyperlink ref="I17" r:id="rId5" display="1259799962@qq.com"/>
+    <hyperlink ref="I18" r:id="rId6" display="18337021782@163.com"/>
     <hyperlink ref="I13" r:id="rId7" display="861146418@qq.com"/>
     <hyperlink ref="I14" r:id="rId8" display="2904835056@qq.com"/>
-    <hyperlink ref="I24" r:id="rId9" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="J24" r:id="rId9" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="I25" r:id="rId10" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
-    <hyperlink ref="I26" r:id="rId11" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
+    <hyperlink ref="I25" r:id="rId9" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="J25" r:id="rId9" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="I26" r:id="rId10" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
+    <hyperlink ref="I27" r:id="rId11" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
     <hyperlink ref="I3" r:id="rId12" display="3205223928@qq.com"/>
     <hyperlink ref="I10" r:id="rId13" display="1469444875@qq.com"/>
     <hyperlink ref="I11" r:id="rId14" display="2763142268@qq.com"/>
     <hyperlink ref="I12" r:id="rId15" display="2856427359@qq.com"/>
-    <hyperlink ref="I27" r:id="rId16" display="3182811175@qq.com"/>
-    <hyperlink ref="I21" r:id="rId17" display="3127778480@qq.com"/>
-    <hyperlink ref="I23" r:id="rId18" display="1596204817@qq.com"/>
+    <hyperlink ref="I28" r:id="rId16" display="3182811175@qq.com"/>
+    <hyperlink ref="I22" r:id="rId17" display="3127778480@qq.com"/>
+    <hyperlink ref="I24" r:id="rId18" display="1596204817@qq.com"/>
     <hyperlink ref="I5" r:id="rId19" display="1029867213@qq.com"/>
     <hyperlink ref="I8" r:id="rId20" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
-    <hyperlink ref="I20" r:id="rId21" display="1392232887@qq.com"/>
+    <hyperlink ref="I21" r:id="rId21" display="1392232887@qq.com"/>
+    <hyperlink ref="I15" r:id="rId22" display="1281381039@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -275,16 +275,22 @@
     <t>3127778480@qq.com</t>
   </si>
   <si>
-    <t>杨奕晟</t>
-  </si>
-  <si>
-    <t>1539726678@qq.com</t>
-  </si>
-  <si>
-    <t>赵秀秀</t>
-  </si>
-  <si>
-    <t>1596204817@qq.com</t>
+    <t>卢英豪</t>
+  </si>
+  <si>
+    <t>306254664@qq.com</t>
+  </si>
+  <si>
+    <t>张祖铭</t>
+  </si>
+  <si>
+    <t>23级电子2班</t>
+  </si>
+  <si>
+    <t>18789781808</t>
+  </si>
+  <si>
+    <t>2215376397@qq.com</t>
   </si>
   <si>
     <t>佩奇组</t>
@@ -328,8 +334,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -403,16 +409,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,16 +470,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -457,37 +531,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -495,53 +538,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,13 +574,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,163 +748,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,6 +860,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -863,28 +884,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -904,17 +908,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -936,9 +940,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -956,152 +962,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1151,9 +1157,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1743,332 +1746,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
     </row>
     <row r="2" ht="36" spans="1:18">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" ht="36" spans="1:18">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="26">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" ht="36" spans="1:18">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="26">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" ht="36" spans="1:18">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="26">
         <v>1</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" ht="36" spans="1:18">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="27">
+      <c r="C6" s="26">
         <v>1</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" ht="36" spans="1:18">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="26">
         <v>4</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" ht="36" spans="1:18">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="26">
         <v>3</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" ht="36" spans="1:18">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="26">
         <v>2</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" ht="36" spans="1:18">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="26">
         <v>6</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" ht="36" spans="1:18">
-      <c r="A11" s="30"/>
-      <c r="B11" s="27" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="26">
         <v>21</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
     </row>
     <row r="12" ht="36" spans="1:18">
-      <c r="A12" s="31"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
+      <c r="A13" s="30"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2085,9 +2088,9 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
@@ -2100,7 +2103,7 @@
     <col min="7" max="7" width="6.625" customWidth="1"/>
     <col min="8" max="8" width="15.375" customWidth="1"/>
     <col min="9" max="9" width="25.625" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="11" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2117,7 +2120,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="18"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
       <c r="A2" s="3" t="s">
@@ -2144,7 +2147,7 @@
       <c r="H2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -2185,7 +2188,7 @@
       <c r="J3" s="4">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2214,7 +2217,7 @@
       <c r="J4" s="4">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="20"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" ht="17.25" spans="1:11">
       <c r="A5" s="4"/>
@@ -2241,7 +2244,7 @@
       <c r="J5" s="4">
         <v>1029867213</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" ht="17.25" spans="1:11">
       <c r="A6" s="4">
@@ -2274,7 +2277,7 @@
       <c r="J6" s="6">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2303,7 +2306,7 @@
       <c r="J7" s="6">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" ht="17.25" spans="1:11">
       <c r="A8" s="4"/>
@@ -2330,7 +2333,7 @@
       <c r="J8" s="6">
         <v>2854908154</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" ht="17.25" spans="1:11">
       <c r="A9" s="4"/>
@@ -2357,7 +2360,7 @@
       <c r="J9" s="6">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" ht="17.25" spans="1:11">
       <c r="A10" s="7">
@@ -2390,7 +2393,7 @@
       <c r="J10" s="4">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="21" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2410,7 +2413,7 @@
       <c r="G11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="32" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="6" t="s">
@@ -2419,7 +2422,7 @@
       <c r="J11" s="4">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="23"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="12" ht="17.25" spans="1:11">
       <c r="A12" s="4"/>
@@ -2446,7 +2449,7 @@
       <c r="J12" s="4">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="23"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" ht="17.25" spans="1:11">
       <c r="A13" s="10">
@@ -2479,7 +2482,7 @@
       <c r="J13" s="4">
         <v>861146418</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2508,7 +2511,7 @@
       <c r="J14" s="4">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="20"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" ht="17.25" spans="1:11">
       <c r="A15" s="10"/>
@@ -2523,19 +2526,19 @@
       <c r="F15" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="6">
         <v>13524744272</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="6">
         <v>1281381039</v>
       </c>
-      <c r="K15" s="20"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" ht="17.25" spans="1:11">
       <c r="A16" s="4">
@@ -2568,7 +2571,7 @@
       <c r="J16" s="6">
         <v>1903157075</v>
       </c>
-      <c r="K16" s="20" t="s">
+      <c r="K16" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2597,7 +2600,7 @@
       <c r="J17" s="6">
         <v>1259799962</v>
       </c>
-      <c r="K17" s="21"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" ht="17.25" spans="1:11">
       <c r="A18" s="4"/>
@@ -2624,7 +2627,7 @@
       <c r="J18" s="6">
         <v>2413792492</v>
       </c>
-      <c r="K18" s="21"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" ht="17.25" spans="1:11">
       <c r="A19" s="4">
@@ -2657,7 +2660,7 @@
       <c r="J19" s="4">
         <v>2106777958</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="K19" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2686,7 +2689,7 @@
       <c r="J20" s="4">
         <v>3057543683</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" ht="17.25" spans="1:11">
       <c r="A21" s="4"/>
@@ -2713,7 +2716,7 @@
       <c r="J21" s="11">
         <v>1392232887</v>
       </c>
-      <c r="K21" s="21"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" ht="17.25" spans="1:11">
       <c r="A22" s="4">
@@ -2746,7 +2749,7 @@
       <c r="J22" s="4">
         <v>3127778480</v>
       </c>
-      <c r="K22" s="20" t="s">
+      <c r="K22" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2758,7 +2761,7 @@
         <v>86</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F23" s="14" t="s">
         <v>36</v>
@@ -2767,15 +2770,15 @@
         <v>27</v>
       </c>
       <c r="H23" s="4">
-        <v>13732966876</v>
+        <v>13037297820</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>87</v>
       </c>
       <c r="J23" s="4">
-        <v>1539726678</v>
-      </c>
-      <c r="K23" s="21"/>
+        <v>3062546644</v>
+      </c>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" ht="17.25" spans="1:11">
       <c r="A24" s="4"/>
@@ -2788,21 +2791,21 @@
         <v>40</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="4">
-        <v>18733822578</v>
+        <v>27</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J24" s="4">
-        <v>1596204817</v>
-      </c>
-      <c r="K24" s="21"/>
+        <v>2215376397</v>
+      </c>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" ht="17.25" spans="1:11">
       <c r="A25" s="12">
@@ -2812,16 +2815,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E25" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G25" s="14" t="s">
         <v>27</v>
@@ -2830,12 +2833,12 @@
         <v>15197637933</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J25" s="4">
         <v>3070167413</v>
       </c>
-      <c r="K25" s="20" t="s">
+      <c r="K25" s="19" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2844,13 +2847,13 @@
       <c r="B26" s="16"/>
       <c r="C26" s="15"/>
       <c r="D26" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G26" s="14" t="s">
         <v>27</v>
@@ -2859,25 +2862,25 @@
         <v>18907637842</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J26" s="4">
         <v>2902413207</v>
       </c>
-      <c r="K26" s="24"/>
+      <c r="K26" s="23"/>
     </row>
     <row r="27" ht="17.25" spans="1:11">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="15"/>
       <c r="D27" s="14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E27" s="14" t="s">
         <v>25</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>27</v>
@@ -2886,25 +2889,25 @@
         <v>18889900903</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J27" s="4">
         <v>1604088171</v>
       </c>
-      <c r="K27" s="20"/>
+      <c r="K27" s="19"/>
     </row>
     <row r="28" ht="17.25" spans="1:11">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="15"/>
       <c r="D28" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>27</v>
@@ -2913,25 +2916,25 @@
         <v>18436187870</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J28" s="4">
         <v>3182811175</v>
       </c>
-      <c r="K28" s="20"/>
+      <c r="K28" s="19"/>
     </row>
     <row r="29" ht="17.25" spans="1:11">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="7"/>
       <c r="D29" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>27</v>
@@ -2940,12 +2943,12 @@
         <v>17700956685</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J29" s="4">
         <v>2270032682</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -2978,27 +2981,25 @@
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
     <hyperlink ref="I7" r:id="rId2" display="1976640167@qq.com" tooltip="mailto:1976640167@qq.com"/>
-    <hyperlink ref="I23" r:id="rId3" display="1539726678@qq.com"/>
-    <hyperlink ref="I16" r:id="rId4" display="19331731290@163.com"/>
-    <hyperlink ref="I17" r:id="rId5" display="1259799962@qq.com"/>
-    <hyperlink ref="I18" r:id="rId6" display="18337021782@163.com"/>
-    <hyperlink ref="I13" r:id="rId7" display="861146418@qq.com"/>
-    <hyperlink ref="I14" r:id="rId8" display="2904835056@qq.com"/>
-    <hyperlink ref="I25" r:id="rId9" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="J25" r:id="rId9" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="I26" r:id="rId10" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
-    <hyperlink ref="I27" r:id="rId11" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
-    <hyperlink ref="I3" r:id="rId12" display="3205223928@qq.com"/>
-    <hyperlink ref="I10" r:id="rId13" display="1469444875@qq.com"/>
-    <hyperlink ref="I11" r:id="rId14" display="2763142268@qq.com"/>
-    <hyperlink ref="I12" r:id="rId15" display="2856427359@qq.com"/>
-    <hyperlink ref="I28" r:id="rId16" display="3182811175@qq.com"/>
-    <hyperlink ref="I22" r:id="rId17" display="3127778480@qq.com"/>
-    <hyperlink ref="I24" r:id="rId18" display="1596204817@qq.com"/>
-    <hyperlink ref="I5" r:id="rId19" display="1029867213@qq.com"/>
-    <hyperlink ref="I8" r:id="rId20" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
-    <hyperlink ref="I21" r:id="rId21" display="1392232887@qq.com"/>
-    <hyperlink ref="I15" r:id="rId22" display="1281381039@qq.com"/>
+    <hyperlink ref="I16" r:id="rId3" display="19331731290@163.com"/>
+    <hyperlink ref="I17" r:id="rId4" display="1259799962@qq.com"/>
+    <hyperlink ref="I18" r:id="rId5" display="18337021782@163.com"/>
+    <hyperlink ref="I13" r:id="rId6" display="861146418@qq.com"/>
+    <hyperlink ref="I14" r:id="rId7" display="2904835056@qq.com"/>
+    <hyperlink ref="I25" r:id="rId8" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="J25" r:id="rId8" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="I26" r:id="rId9" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
+    <hyperlink ref="I27" r:id="rId10" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
+    <hyperlink ref="I3" r:id="rId11" display="3205223928@qq.com"/>
+    <hyperlink ref="I10" r:id="rId12" display="1469444875@qq.com"/>
+    <hyperlink ref="I11" r:id="rId13" display="2763142268@qq.com"/>
+    <hyperlink ref="I12" r:id="rId14" display="2856427359@qq.com"/>
+    <hyperlink ref="I28" r:id="rId15" display="3182811175@qq.com"/>
+    <hyperlink ref="I22" r:id="rId16" display="3127778480@qq.com"/>
+    <hyperlink ref="I5" r:id="rId17" display="1029867213@qq.com"/>
+    <hyperlink ref="I8" r:id="rId18" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
+    <hyperlink ref="I21" r:id="rId19" display="1392232887@qq.com"/>
+    <hyperlink ref="I15" r:id="rId20" display="1281381039@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12570" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="队伍数" sheetId="1" r:id="rId1"/>
     <sheet name="队伍详细信息" sheetId="2" r:id="rId2"/>
+    <sheet name="指导教师" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="171">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -327,6 +328,207 @@
   </si>
   <si>
     <t>abc190009n31@163.com</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>第一指导教师</t>
+  </si>
+  <si>
+    <t>第二指导教师</t>
+  </si>
+  <si>
+    <t>队员</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>颜丽娜</t>
+  </si>
+  <si>
+    <t>钟久明</t>
+  </si>
+  <si>
+    <t>王映品</t>
+  </si>
+  <si>
+    <t>李志波</t>
+  </si>
+  <si>
+    <t>伍亮</t>
+  </si>
+  <si>
+    <t>李重阳</t>
+  </si>
+  <si>
+    <t>吕栋栋</t>
+  </si>
+  <si>
+    <t>葛浩天</t>
+  </si>
+  <si>
+    <t>刘汉军</t>
+  </si>
+  <si>
+    <t>钟承尧</t>
+  </si>
+  <si>
+    <t>曲春英</t>
+  </si>
+  <si>
+    <t>李功捷</t>
+  </si>
+  <si>
+    <t>郝旭光(领队)</t>
+  </si>
+  <si>
+    <t>成志远,张嘉佳,傅琦玮</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>13697504698</t>
+  </si>
+  <si>
+    <t>13976012073</t>
+  </si>
+  <si>
+    <t>13707546456</t>
+  </si>
+  <si>
+    <t>13925967153</t>
+  </si>
+  <si>
+    <t>魏郡辰,曾帅博,邓磊镗,王雨蒙</t>
+  </si>
+  <si>
+    <t>510086548@qq.com</t>
+  </si>
+  <si>
+    <t>807145766@qq.com</t>
+  </si>
+  <si>
+    <t>371510397@qq.com</t>
+  </si>
+  <si>
+    <t>lizhibo198212@163.com</t>
+  </si>
+  <si>
+    <t>wuliang_hn@163.com</t>
+  </si>
+  <si>
+    <t>15773206100@163.com</t>
+  </si>
+  <si>
+    <t>781956122@qq.com</t>
+  </si>
+  <si>
+    <t>ght1993328@163.com</t>
+  </si>
+  <si>
+    <t>1173067@qq.com</t>
+  </si>
+  <si>
+    <t>490086268@qq.com</t>
+  </si>
+  <si>
+    <t>957352951@qq.com</t>
+  </si>
+  <si>
+    <t>547923649@qq.com</t>
+  </si>
+  <si>
+    <t>郝旭光</t>
+  </si>
+  <si>
+    <t>胡荣,韩一铭,池盛昌</t>
+  </si>
+  <si>
+    <t>所属院系</t>
+  </si>
+  <si>
+    <t>物理与电子工程学院</t>
+  </si>
+  <si>
+    <t>张志硕,殷浩玮,李叶雨</t>
+  </si>
+  <si>
+    <t>研究方向</t>
+  </si>
+  <si>
+    <t>自动化应用控制技术</t>
+  </si>
+  <si>
+    <t>电力电子与电力传动，智能制造与智能控制</t>
+  </si>
+  <si>
+    <t>自动控制与电源</t>
+  </si>
+  <si>
+    <t>电机控制和NVH</t>
+  </si>
+  <si>
+    <t>复杂网络，电力系统，控制理论</t>
+  </si>
+  <si>
+    <t>超精密加工与智能制造</t>
+  </si>
+  <si>
+    <t>光机电一体化</t>
+  </si>
+  <si>
+    <t>配电自动化</t>
+  </si>
+  <si>
+    <t>人工智能</t>
+  </si>
+  <si>
+    <t>太阳能应用和自动控制应用</t>
+  </si>
+  <si>
+    <t>传感器与检测技术</t>
+  </si>
+  <si>
+    <t>工业自动化，电子技术与自动控制</t>
+  </si>
+  <si>
+    <t>张起川,张皓博,胥博晨</t>
+  </si>
+  <si>
+    <t>工作证号</t>
+  </si>
+  <si>
+    <t>060052</t>
+  </si>
+  <si>
+    <t>060047</t>
+  </si>
+  <si>
+    <t>060122</t>
+  </si>
+  <si>
+    <t>920264</t>
+  </si>
+  <si>
+    <t>060908</t>
+  </si>
+  <si>
+    <t>060037</t>
+  </si>
+  <si>
+    <t>060117</t>
+  </si>
+  <si>
+    <t>张艺鹏,严超,陈楠锦</t>
+  </si>
+  <si>
+    <t>蔡智灏,卢英豪,张祖铭</t>
+  </si>
+  <si>
+    <t>赵科磊,叶世帅,钟俊杰,赵国印,余锦文</t>
   </si>
 </sst>
 </file>
@@ -334,16 +536,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -351,21 +567,14 @@
       <b/>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="15"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -373,7 +582,7 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -397,52 +606,59 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="28"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -450,7 +666,68 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -458,97 +735,29 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -568,169 +777,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,12 +801,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -762,16 +971,136 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -856,6 +1185,63 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,18 +1263,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,357 +1286,347 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1738,7 +2107,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="22.4833333333333" customWidth="1"/>
@@ -1746,332 +2115,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-    </row>
-    <row r="2" ht="36" spans="1:18">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+    </row>
+    <row r="2" ht="35.25" spans="1:18">
+      <c r="A2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-    </row>
-    <row r="3" ht="36" spans="1:18">
-      <c r="A3" s="26">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+    </row>
+    <row r="3" ht="35.25" spans="1:18">
+      <c r="A3" s="39">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="39">
         <v>1</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-    </row>
-    <row r="4" ht="36" spans="1:18">
-      <c r="A4" s="26">
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+    </row>
+    <row r="4" ht="35.25" spans="1:18">
+      <c r="A4" s="39">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="39">
         <v>3</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-    </row>
-    <row r="5" ht="36" spans="1:18">
-      <c r="A5" s="26">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+    </row>
+    <row r="5" ht="35.25" spans="1:18">
+      <c r="A5" s="39">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="39">
         <v>1</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-    </row>
-    <row r="6" ht="36" spans="1:18">
-      <c r="A6" s="26">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+    </row>
+    <row r="6" ht="35.25" spans="1:18">
+      <c r="A6" s="39">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="39">
         <v>1</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-    </row>
-    <row r="7" ht="36" spans="1:18">
-      <c r="A7" s="26">
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+    </row>
+    <row r="7" ht="35.25" spans="1:18">
+      <c r="A7" s="39">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="39">
         <v>4</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-    </row>
-    <row r="8" ht="36" spans="1:18">
-      <c r="A8" s="26">
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+    </row>
+    <row r="8" ht="35.25" spans="1:18">
+      <c r="A8" s="39">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-    </row>
-    <row r="9" ht="36" spans="1:18">
-      <c r="A9" s="26">
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+    </row>
+    <row r="9" ht="35.25" spans="1:18">
+      <c r="A9" s="39">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="39">
         <v>2</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-    </row>
-    <row r="10" ht="36" spans="1:18">
-      <c r="A10" s="26">
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+    </row>
+    <row r="10" ht="35.25" spans="1:18">
+      <c r="A10" s="39">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="39">
         <v>6</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-    </row>
-    <row r="11" ht="36" spans="1:18">
-      <c r="A11" s="29"/>
-      <c r="B11" s="26" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+    </row>
+    <row r="11" ht="35.25" spans="1:18">
+      <c r="A11" s="42"/>
+      <c r="B11" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="39">
         <v>21</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-    </row>
-    <row r="12" ht="36" spans="1:18">
-      <c r="A12" s="30"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+    </row>
+    <row r="12" ht="35.25" spans="1:18">
+      <c r="A12" s="43"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="30"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="30"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2087,13 +2456,13 @@
   <sheetPr/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25:D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="8.125" customWidth="1"/>
@@ -2105,850 +2474,854 @@
     <col min="9" max="9" width="25.625" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="11" width="6.625" customWidth="1"/>
+    <col min="14" max="14" width="29.625" customWidth="1"/>
+    <col min="15" max="15" width="1" customWidth="1"/>
+    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="17" max="17" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="36" spans="1:11">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="15" customFormat="1" ht="35.25" spans="1:11">
+      <c r="A1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" ht="19.5" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" ht="17.25" spans="1:11">
-      <c r="A3" s="4">
+    <row r="3" ht="15" spans="1:11">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="18">
         <v>18976848923</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="18">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" ht="17.25" spans="1:11">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+    <row r="4" ht="15" spans="1:11">
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="18">
         <v>13909934072</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="18">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="19"/>
-    </row>
-    <row r="5" ht="17.25" spans="1:11">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="K4" s="32"/>
+    </row>
+    <row r="5" ht="15" spans="1:11">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="18">
         <v>18379028720</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="18">
         <v>1029867213</v>
       </c>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" ht="17.25" spans="1:11">
-      <c r="A6" s="4">
+      <c r="K5" s="32"/>
+    </row>
+    <row r="6" ht="15" spans="1:11">
+      <c r="A6" s="18">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="4">
         <v>15522999550</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="4">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="17.25" spans="1:11">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6" t="s">
+    <row r="7" ht="15" spans="1:11">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>18779680827</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="20"/>
-    </row>
-    <row r="8" ht="17.25" spans="1:11">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6" t="s">
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" ht="15" spans="1:11">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="4">
         <v>15914897361</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="4">
         <v>2854908154</v>
       </c>
-      <c r="K8" s="20"/>
-    </row>
-    <row r="9" ht="17.25" spans="1:11">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" ht="15" spans="1:11">
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="4">
         <v>17786936509</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="4">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" ht="17.25" spans="1:11">
-      <c r="A10" s="7">
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" ht="15" spans="1:11">
+      <c r="A10" s="20">
         <v>3</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="18">
         <v>17373701992</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="18">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="17.25" spans="1:11">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
+    <row r="11" ht="15" spans="1:11">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="18">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="22"/>
-    </row>
-    <row r="12" ht="17.25" spans="1:11">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="K11" s="35"/>
+    </row>
+    <row r="12" ht="15" spans="1:11">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="18">
         <v>15865767711</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="18">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="22"/>
-    </row>
-    <row r="13" ht="17.25" spans="1:11">
-      <c r="A13" s="10">
+      <c r="K12" s="35"/>
+    </row>
+    <row r="13" ht="15" spans="1:11">
+      <c r="A13" s="23">
         <v>4</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="18">
         <v>15055092005</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="18">
         <v>861146418</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" ht="17.25" spans="1:11">
-      <c r="A14" s="10"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+    <row r="14" ht="15" spans="1:11">
+      <c r="A14" s="23"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="18">
         <v>17889769490</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="18">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="19"/>
-    </row>
-    <row r="15" ht="17.25" spans="1:11">
-      <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" ht="15" spans="1:11">
+      <c r="A15" s="23"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="4">
         <v>13524744272</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="4">
         <v>1281381039</v>
       </c>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" ht="17.25" spans="1:11">
-      <c r="A16" s="4">
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" ht="15" spans="1:11">
+      <c r="A16" s="18">
         <v>5</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="4">
         <v>19331731290</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="4">
         <v>1903157075</v>
       </c>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" ht="17.25" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="6" t="s">
+    <row r="17" ht="15" spans="1:11">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="4">
         <v>15853951259</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="4">
         <v>1259799962</v>
       </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" ht="17.25" spans="1:11">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="6" t="s">
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" ht="15" spans="1:11">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="4">
         <v>18337021782</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="4">
         <v>2413792492</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" ht="17.25" spans="1:11">
-      <c r="A19" s="4">
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" ht="15" spans="1:11">
+      <c r="A19" s="18">
         <v>6</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="18">
         <v>18976534806</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="I19" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="18">
         <v>2106777958</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" ht="17.25" spans="1:11">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+    <row r="20" ht="15" spans="1:11">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="18">
         <v>15348851215</v>
       </c>
-      <c r="I20" s="4" t="s">
+      <c r="I20" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="18">
         <v>3057543683</v>
       </c>
-      <c r="K20" s="19"/>
+      <c r="K20" s="32"/>
     </row>
     <row r="21" ht="17.25" spans="1:11">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="24">
         <v>18948563613</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="24">
         <v>1392232887</v>
       </c>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" ht="17.25" spans="1:11">
-      <c r="A22" s="4">
+      <c r="K21" s="33"/>
+    </row>
+    <row r="22" ht="15" spans="1:11">
+      <c r="A22" s="18">
         <v>7</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="18">
         <v>18990689551</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="18">
         <v>3127778480</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" ht="17.25" spans="1:11">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+    <row r="23" ht="15" spans="1:11">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="18">
         <v>13037297820</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="18">
         <v>3062546644</v>
       </c>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" ht="17.25" spans="1:11">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" ht="15" spans="1:11">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="18">
         <v>2215376397</v>
       </c>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25" ht="17.25" spans="1:11">
-      <c r="A25" s="12">
+      <c r="K24" s="33"/>
+    </row>
+    <row r="25" ht="15" spans="1:11">
+      <c r="A25" s="25">
         <v>8</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="18">
         <v>15197637933</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="18">
         <v>3070167413</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="K25" s="32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" ht="17.25" spans="1:11">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="14" t="s">
+    <row r="26" ht="15" spans="1:11">
+      <c r="A26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="18">
         <v>18907637842</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="18">
         <v>2902413207</v>
       </c>
-      <c r="K26" s="23"/>
-    </row>
-    <row r="27" ht="17.25" spans="1:11">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="14" t="s">
+      <c r="K26" s="36"/>
+    </row>
+    <row r="27" ht="15" spans="1:11">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="18">
         <v>18889900903</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="18">
         <v>1604088171</v>
       </c>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" ht="17.25" spans="1:11">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="4" t="s">
+      <c r="K27" s="32"/>
+    </row>
+    <row r="28" ht="15" spans="1:11">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="14" t="s">
+      <c r="F28" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="G28" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="18">
         <v>18436187870</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="18">
         <v>3182811175</v>
       </c>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" ht="17.25" spans="1:11">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="4" t="s">
+      <c r="K28" s="32"/>
+    </row>
+    <row r="29" ht="15" spans="1:11">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="18">
         <v>17700956685</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="18">
         <v>2270032682</v>
       </c>
-      <c r="K29" s="19"/>
+      <c r="K29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -3004,4 +3377,505 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:S28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.625" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="28.625" customWidth="1"/>
+    <col min="9" max="9" width="30.875" customWidth="1"/>
+    <col min="10" max="10" width="30.75" customWidth="1"/>
+    <col min="11" max="11" width="34.5" customWidth="1"/>
+    <col min="12" max="12" width="34.25" customWidth="1"/>
+    <col min="13" max="13" width="30" customWidth="1"/>
+    <col min="14" max="14" width="28.625" customWidth="1"/>
+    <col min="15" max="15" width="36.875" customWidth="1"/>
+    <col min="16" max="16" width="31.625" customWidth="1"/>
+    <col min="17" max="18" width="30.75" customWidth="1"/>
+    <col min="19" max="19" width="34.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23.25" spans="1:19">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" ht="22.5" spans="1:19">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A9" si="0">ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="10">
+        <v>15217630408</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="10">
+        <v>15773206100</v>
+      </c>
+      <c r="N2" s="10">
+        <v>16637901209</v>
+      </c>
+      <c r="O2" s="10">
+        <v>18606351000</v>
+      </c>
+      <c r="P2" s="10">
+        <v>13876301230</v>
+      </c>
+      <c r="Q2" s="10">
+        <v>13098987798</v>
+      </c>
+      <c r="R2" s="10">
+        <v>15091996331</v>
+      </c>
+      <c r="S2" s="10">
+        <v>18789553834</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" spans="1:19">
+      <c r="A3" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" spans="1:19">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" ht="45" spans="1:19">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" spans="1:19">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="10">
+        <v>60123</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="10">
+        <v>920391</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="O6" s="10">
+        <v>920271</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>60029</v>
+      </c>
+      <c r="R6" s="10">
+        <v>60043</v>
+      </c>
+      <c r="S6" s="46" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:5">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:5">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" spans="1:15">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="L9" s="14"/>
+      <c r="O9" s="14"/>
+    </row>
+    <row r="10" ht="14.25" spans="12:15">
+      <c r="L10" s="14"/>
+      <c r="O10" s="14"/>
+    </row>
+    <row r="11" spans="12:15">
+      <c r="L11" s="14"/>
+      <c r="O11" s="14"/>
+    </row>
+    <row r="12" spans="12:15">
+      <c r="L12" s="14"/>
+      <c r="O12" s="14"/>
+    </row>
+    <row r="13" spans="12:15">
+      <c r="L13" s="14"/>
+      <c r="O13" s="14"/>
+    </row>
+    <row r="14" spans="12:15">
+      <c r="L14" s="14"/>
+      <c r="O14" s="14"/>
+    </row>
+    <row r="16" spans="12:15">
+      <c r="L16" s="14"/>
+      <c r="O16" s="14"/>
+    </row>
+    <row r="17" spans="12:15">
+      <c r="L17" s="14"/>
+      <c r="O17" s="14"/>
+    </row>
+    <row r="18" spans="12:15">
+      <c r="L18" s="14"/>
+      <c r="O18" s="14"/>
+    </row>
+    <row r="19" spans="12:15">
+      <c r="L19" s="14"/>
+      <c r="O19" s="14"/>
+    </row>
+    <row r="20" spans="12:15">
+      <c r="L20" s="14"/>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="12:15">
+      <c r="L21" s="14"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="23" spans="12:12">
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="12:12">
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="12:12">
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="12:12">
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="12:12">
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="12:12">
+      <c r="L28" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M3" r:id="rId1" display="15773206100@163.com" tooltip="mailto:15773206100@163.com"/>
+    <hyperlink ref="S3" r:id="rId2" display="547923649@qq.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="179">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -87,6 +87,12 @@
     <t>备注</t>
   </si>
   <si>
+    <t>报名通知</t>
+  </si>
+  <si>
+    <t>06-02交流</t>
+  </si>
+  <si>
     <t>咸鱼纵横</t>
   </si>
   <si>
@@ -108,6 +114,9 @@
     <t>队长</t>
   </si>
   <si>
+    <t>v</t>
+  </si>
+  <si>
     <t>张嘉佳</t>
   </si>
   <si>
@@ -171,6 +180,9 @@
     <t>huimou0927@qq.com</t>
   </si>
   <si>
+    <t>x</t>
+  </si>
+  <si>
     <t>Super赛车</t>
   </si>
   <si>
@@ -198,6 +210,9 @@
     <t>2856427359@qq.com</t>
   </si>
   <si>
+    <t>线上请假</t>
+  </si>
+  <si>
     <t>帅的无言以队</t>
   </si>
   <si>
@@ -234,6 +249,9 @@
     <t>19331731290@163.com</t>
   </si>
   <si>
+    <t>弃赛</t>
+  </si>
+  <si>
     <t>张皓博</t>
   </si>
   <si>
@@ -255,6 +273,9 @@
     <t>2106777958@qq.com</t>
   </si>
   <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>严超</t>
   </si>
   <si>
@@ -265,6 +286,9 @@
   </si>
   <si>
     <t>1392232887@qq.com</t>
+  </si>
+  <si>
+    <t>不出现</t>
   </si>
   <si>
     <t>独轮总能队</t>
@@ -536,12 +560,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,12 +622,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="26"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -619,25 +637,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,7 +651,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,30 +659,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -697,7 +675,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -705,7 +683,76 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -719,50 +766,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,7 +795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -789,25 +813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,7 +831,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,7 +855,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,13 +885,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,97 +981,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,8 +1216,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1240,49 +1305,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1291,152 +1315,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1452,28 +1476,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1534,6 +1555,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1543,37 +1567,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2115,332 +2154,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
     </row>
     <row r="2" ht="35.25" spans="1:18">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
     </row>
     <row r="3" ht="35.25" spans="1:18">
-      <c r="A3" s="39">
+      <c r="A3" s="44">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="44">
         <v>1</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
     </row>
     <row r="4" ht="35.25" spans="1:18">
-      <c r="A4" s="39">
+      <c r="A4" s="44">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="44">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
     </row>
     <row r="5" ht="35.25" spans="1:18">
-      <c r="A5" s="39">
+      <c r="A5" s="44">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="44">
         <v>1</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
     </row>
     <row r="6" ht="35.25" spans="1:18">
-      <c r="A6" s="39">
+      <c r="A6" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="44">
         <v>1</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" ht="35.25" spans="1:18">
-      <c r="A7" s="39">
+      <c r="A7" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="44">
         <v>4</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="48"/>
+      <c r="R7" s="48"/>
     </row>
     <row r="8" ht="35.25" spans="1:18">
-      <c r="A8" s="39">
+      <c r="A8" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="44">
         <v>3</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
     </row>
     <row r="9" ht="35.25" spans="1:18">
-      <c r="A9" s="39">
+      <c r="A9" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="44">
         <v>2</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
-      <c r="L9" s="43"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
     </row>
     <row r="10" ht="35.25" spans="1:18">
-      <c r="A10" s="39">
+      <c r="A10" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="44">
         <v>6</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="43"/>
-      <c r="R10" s="43"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" ht="35.25" spans="1:18">
-      <c r="A11" s="42"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="44">
         <v>21</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="43"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="43"/>
-      <c r="R11" s="43"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" ht="35.25" spans="1:18">
-      <c r="A12" s="43"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="43"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2454,12 +2493,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25:D29"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -2474,857 +2513,963 @@
     <col min="9" max="9" width="25.625" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="11" width="6.625" customWidth="1"/>
-    <col min="14" max="14" width="29.625" customWidth="1"/>
-    <col min="15" max="15" width="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="14" max="14" width="6.125" customWidth="1"/>
+    <col min="15" max="15" width="8.375" customWidth="1"/>
     <col min="16" max="16" width="8.875" customWidth="1"/>
     <col min="17" max="17" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="35.25" spans="1:11">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="14" customFormat="1" ht="35.25" spans="1:11">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" ht="19.5" spans="1:11">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" ht="19.5" spans="1:13">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" ht="15" spans="1:11">
-      <c r="A3" s="18">
+      <c r="L2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="15" spans="1:13">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="D3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="18">
+      <c r="F3" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="17">
         <v>18976848923</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="18">
+        <v>30</v>
+      </c>
+      <c r="J3" s="17">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:13">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="17">
+        <v>13909934072</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2157646685</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="15" spans="1:13">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:11">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="18" t="s">
+      <c r="H5" s="17">
+        <v>18379028720</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1029867213</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="18">
-        <v>13909934072</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="18">
-        <v>2157646685</v>
-      </c>
-      <c r="K4" s="32"/>
-    </row>
-    <row r="5" ht="15" spans="1:11">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="18">
-        <v>18379028720</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="18">
-        <v>1029867213</v>
-      </c>
-      <c r="K5" s="32"/>
-    </row>
-    <row r="6" ht="15" spans="1:11">
-      <c r="A6" s="18">
+    </row>
+    <row r="6" ht="15" spans="1:13">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>38</v>
+      <c r="C6" s="17" t="s">
+        <v>41</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4">
         <v>15522999550</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6" s="4">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="1:13">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:11">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H7" s="4">
         <v>18779680827</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J7" s="4">
         <v>1976640167</v>
       </c>
       <c r="K7" s="33"/>
-    </row>
-    <row r="8" ht="15" spans="1:11">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="15" spans="1:13">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>50</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H8" s="4">
         <v>15914897361</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J8" s="4">
         <v>2854908154</v>
       </c>
       <c r="K8" s="33"/>
-    </row>
-    <row r="9" ht="15" spans="1:11">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" ht="15" spans="1:13">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4">
         <v>17786936509</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>50</v>
+      <c r="I9" s="22" t="s">
+        <v>53</v>
       </c>
       <c r="J9" s="4">
         <v>3474583090</v>
       </c>
       <c r="K9" s="33"/>
-    </row>
-    <row r="10" ht="15" spans="1:11">
-      <c r="A10" s="20">
+      <c r="L9" s="32"/>
+      <c r="M9" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:13">
+      <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="18" t="s">
+      <c r="C10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="18">
+      <c r="F10" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="17">
         <v>17373701992</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1469444875</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" ht="15" spans="1:13">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="17">
+        <v>2763142268</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="J10" s="18">
-        <v>1469444875</v>
-      </c>
-      <c r="K10" s="34" t="s">
+    </row>
+    <row r="12" ht="15" spans="1:13">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" ht="15" spans="1:11">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="18" t="s">
+      <c r="H12" s="17">
+        <v>15865767711</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2856427359</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:13">
+      <c r="A13" s="22">
+        <v>4</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" s="4" t="s">
+      <c r="F13" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="18">
-        <v>2763142268</v>
-      </c>
-      <c r="K11" s="35"/>
-    </row>
-    <row r="12" ht="15" spans="1:11">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="18" t="s">
+      <c r="G13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="17">
+        <v>15055092005</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="17">
+        <v>861146418</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" ht="15" spans="1:13">
+      <c r="A14" s="22"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="18">
-        <v>15865767711</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="18">
-        <v>2856427359</v>
-      </c>
-      <c r="K12" s="35"/>
-    </row>
-    <row r="13" ht="15" spans="1:11">
-      <c r="A13" s="23">
-        <v>4</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="18" t="s">
+      <c r="F14" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="17">
+        <v>17889769490</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J14" s="17">
+        <v>2904835056</v>
+      </c>
+      <c r="K14" s="31"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" ht="15" spans="1:13">
+      <c r="A15" s="22"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="18">
-        <v>15055092005</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" s="18">
-        <v>861146418</v>
-      </c>
-      <c r="K13" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:11">
-      <c r="A14" s="23"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="18">
-        <v>17889769490</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="18">
-        <v>2904835056</v>
-      </c>
-      <c r="K14" s="32"/>
-    </row>
-    <row r="15" ht="15" spans="1:11">
-      <c r="A15" s="23"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>66</v>
+      <c r="F15" s="26" t="s">
+        <v>71</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H15" s="4">
         <v>13524744272</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J15" s="4">
         <v>1281381039</v>
       </c>
-      <c r="K15" s="32"/>
-    </row>
-    <row r="16" ht="15" spans="1:11">
-      <c r="A16" s="18">
+      <c r="K15" s="31"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" ht="15" spans="1:13">
+      <c r="A16" s="17">
         <v>5</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>68</v>
+      <c r="C16" s="17" t="s">
+        <v>73</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H16" s="4">
         <v>19331731290</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J16" s="4">
         <v>1903157075</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="32"/>
+    </row>
+    <row r="17" ht="15" spans="1:13">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:11">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="H17" s="4">
         <v>15853951259</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J17" s="4">
         <v>1259799962</v>
       </c>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" ht="15" spans="1:11">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="18"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="32"/>
+    </row>
+    <row r="18" ht="15" spans="1:13">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="F18" s="26" t="s">
+        <v>75</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H18" s="4">
         <v>18337021782</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J18" s="4">
         <v>2413792492</v>
       </c>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" ht="15" spans="1:11">
-      <c r="A19" s="18">
+      <c r="K18" s="37"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="32"/>
+    </row>
+    <row r="19" ht="15" spans="1:13">
+      <c r="A19" s="17">
         <v>6</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="17">
+        <v>18976534806</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="17">
+        <v>2106777958</v>
+      </c>
+      <c r="K19" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" ht="15" spans="1:13">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="17">
+        <v>15348851215</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="17">
+        <v>3057543683</v>
+      </c>
+      <c r="K20" s="31"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:13">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="23">
+        <v>18948563613</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="23">
+        <v>1392232887</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="32"/>
+    </row>
+    <row r="22" ht="15" spans="1:13">
+      <c r="A22" s="17">
+        <v>7</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="17">
+        <v>18990689551</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="17">
+        <v>3127778480</v>
+      </c>
+      <c r="K22" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" ht="15" spans="1:13">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="17">
+        <v>13037297820</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="17">
+        <v>3062546644</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" ht="15" spans="1:13">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2215376397</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+    </row>
+    <row r="25" ht="15" spans="1:13">
+      <c r="A25" s="24">
+        <v>8</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="17">
+        <v>15197637933</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="17">
+        <v>3070167413</v>
+      </c>
+      <c r="K25" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="M25" s="32"/>
+    </row>
+    <row r="26" ht="15" spans="1:13">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="18">
-        <v>18976534806</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="18">
-        <v>2106777958</v>
-      </c>
-      <c r="K19" s="32" t="s">
+      <c r="F26" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" ht="15" spans="1:11">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="18" t="s">
+      <c r="H26" s="17">
+        <v>18907637842</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="17">
+        <v>2902413207</v>
+      </c>
+      <c r="K26" s="38"/>
+      <c r="M26" s="32"/>
+    </row>
+    <row r="27" ht="15" spans="1:13">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="18">
-        <v>15348851215</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="18">
-        <v>3057543683</v>
-      </c>
-      <c r="K20" s="32"/>
-    </row>
-    <row r="21" ht="17.25" spans="1:11">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="24" t="s">
+      <c r="F27" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="H27" s="17">
+        <v>18889900903</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="17">
+        <v>1604088171</v>
+      </c>
+      <c r="K27" s="38"/>
+      <c r="M27" s="32"/>
+    </row>
+    <row r="28" ht="15" spans="1:13">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H21" s="24">
-        <v>18948563613</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="J21" s="24">
-        <v>1392232887</v>
-      </c>
-      <c r="K21" s="33"/>
-    </row>
-    <row r="22" ht="15" spans="1:11">
-      <c r="A22" s="18">
-        <v>7</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="18" t="s">
+      <c r="F28" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="17">
+        <v>18436187870</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="17">
+        <v>3182811175</v>
+      </c>
+      <c r="K28" s="38"/>
+      <c r="M28" s="32"/>
+    </row>
+    <row r="29" ht="15" spans="1:13">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="18">
-        <v>18990689551</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="J22" s="18">
-        <v>3127778480</v>
-      </c>
-      <c r="K22" s="32" t="s">
+      <c r="F29" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G29" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" ht="15" spans="1:11">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="18">
-        <v>13037297820</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="18">
-        <v>3062546644</v>
-      </c>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" ht="15" spans="1:11">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J24" s="18">
-        <v>2215376397</v>
-      </c>
-      <c r="K24" s="33"/>
-    </row>
-    <row r="25" ht="15" spans="1:11">
-      <c r="A25" s="25">
-        <v>8</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="18">
-        <v>15197637933</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="18">
-        <v>3070167413</v>
-      </c>
-      <c r="K25" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:11">
-      <c r="A26" s="28"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="18">
-        <v>18907637842</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="18">
-        <v>2902413207</v>
-      </c>
-      <c r="K26" s="36"/>
-    </row>
-    <row r="27" ht="15" spans="1:11">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="18">
-        <v>18889900903</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="18">
-        <v>1604088171</v>
-      </c>
-      <c r="K27" s="32"/>
-    </row>
-    <row r="28" ht="15" spans="1:11">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="18">
-        <v>18436187870</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J28" s="18">
-        <v>3182811175</v>
-      </c>
-      <c r="K28" s="32"/>
-    </row>
-    <row r="29" ht="15" spans="1:11">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <v>17700956685</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J29" s="18">
+        <v>111</v>
+      </c>
+      <c r="J29" s="17">
         <v>2270032682</v>
       </c>
-      <c r="K29" s="32"/>
+      <c r="K29" s="39"/>
+      <c r="M29" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="33">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
@@ -3350,6 +3495,14 @@
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C29"/>
+    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L6:L9"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="L22:L24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
@@ -3382,12 +3535,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <pane xSplit="7" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="S11" sqref="S11"/>
+      <selection pane="topRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3413,58 +3566,58 @@
   <sheetData>
     <row r="1" ht="23.25" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>120</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" ht="22.5" spans="1:19">
@@ -3476,51 +3629,51 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="J2" s="10">
+      <c r="E2" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J2" s="9">
         <v>15217630408</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M2" s="10">
+      <c r="K2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" s="9">
         <v>15773206100</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <v>16637901209</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="9">
         <v>18606351000</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="9">
         <v>13876301230</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="9">
         <v>13098987798</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="9">
         <v>15091996331</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="9">
         <v>18789553834</v>
       </c>
     </row>
@@ -3533,52 +3686,52 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="P3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>140</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:19">
@@ -3590,52 +3743,52 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:19">
@@ -3647,52 +3800,52 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="N5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="R5" s="10" t="s">
+      <c r="J5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="S5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>158</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="S5" s="11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="6" ht="22.5" spans="1:19">
@@ -3704,52 +3857,52 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="D6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="9">
         <v>60123</v>
       </c>
-      <c r="K6" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="M6" s="10">
+      <c r="K6" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M6" s="9">
         <v>920391</v>
       </c>
-      <c r="N6" s="46" t="s">
-        <v>165</v>
-      </c>
-      <c r="O6" s="10">
+      <c r="N6" s="51" t="s">
+        <v>173</v>
+      </c>
+      <c r="O6" s="9">
         <v>920271</v>
       </c>
-      <c r="P6" s="46" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q6" s="10">
+      <c r="P6" s="51" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q6" s="9">
         <v>60029</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="9">
         <v>60043</v>
       </c>
-      <c r="S6" s="46" t="s">
-        <v>167</v>
+      <c r="S6" s="51" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:5">
@@ -3761,13 +3914,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>168</v>
+        <v>126</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
@@ -3779,96 +3932,57 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>169</v>
+        <v>122</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:15">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="L9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="C9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" ht="14.25" spans="12:15">
-      <c r="L10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="12:15">
-      <c r="L11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="L11" s="13"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="12:15">
-      <c r="L12" s="14"/>
-      <c r="O12" s="14"/>
+      <c r="L12" s="13"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="12:15">
-      <c r="L13" s="14"/>
-      <c r="O13" s="14"/>
+      <c r="L13" s="13"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="12:15">
-      <c r="L14" s="14"/>
-      <c r="O14" s="14"/>
-    </row>
-    <row r="16" spans="12:15">
-      <c r="L16" s="14"/>
-      <c r="O16" s="14"/>
-    </row>
-    <row r="17" spans="12:15">
-      <c r="L17" s="14"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="12:15">
-      <c r="L18" s="14"/>
-      <c r="O18" s="14"/>
-    </row>
-    <row r="19" spans="12:15">
-      <c r="L19" s="14"/>
-      <c r="O19" s="14"/>
-    </row>
-    <row r="20" spans="12:15">
-      <c r="L20" s="14"/>
-      <c r="O20" s="14"/>
-    </row>
-    <row r="21" spans="12:15">
-      <c r="L21" s="14"/>
-      <c r="O21" s="14"/>
-    </row>
-    <row r="23" spans="12:12">
-      <c r="L23" s="14"/>
-    </row>
-    <row r="24" spans="12:12">
-      <c r="L24" s="14"/>
-    </row>
-    <row r="25" spans="12:12">
-      <c r="L25" s="14"/>
-    </row>
-    <row r="26" spans="12:12">
-      <c r="L26" s="14"/>
-    </row>
-    <row r="27" spans="12:12">
-      <c r="L27" s="14"/>
-    </row>
-    <row r="28" spans="12:12">
-      <c r="L28" s="14"/>
+      <c r="L14" s="13"/>
+      <c r="O14" s="13"/>
+    </row>
+    <row r="17" spans="12:12">
+      <c r="L17" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="队伍数" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="177">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -198,9 +198,6 @@
     <t>韩一铭</t>
   </si>
   <si>
-    <t>151640799221</t>
-  </si>
-  <si>
     <t>2763142268@qq.com</t>
   </si>
   <si>
@@ -310,9 +307,6 @@
   </si>
   <si>
     <t>23级电子2班</t>
-  </si>
-  <si>
-    <t>18789781808</t>
   </si>
   <si>
     <t>2215376397@qq.com</t>
@@ -560,10 +554,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -637,7 +631,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,11 +651,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -674,8 +683,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -689,26 +713,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -720,17 +736,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -745,36 +760,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,13 +795,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -819,31 +843,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,19 +867,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,13 +885,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,7 +945,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,73 +975,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,73 +1210,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1305,8 +1234,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1315,148 +1309,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1608,9 +1602,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2495,10 +2486,10 @@
   <sheetPr/>
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19:D20"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -2871,11 +2862,11 @@
       <c r="G11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="17">
+        <v>15164079921</v>
+      </c>
+      <c r="I11" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="J11" s="17">
         <v>2763142268</v>
@@ -2891,7 +2882,7 @@
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>27</v>
@@ -2906,7 +2897,7 @@
         <v>15865767711</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="17">
         <v>2856427359</v>
@@ -2914,7 +2905,7 @@
       <c r="K12" s="35"/>
       <c r="L12" s="32"/>
       <c r="M12" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="15" spans="1:13">
@@ -2925,10 +2916,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>66</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>27</v>
@@ -2943,7 +2934,7 @@
         <v>15055092005</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="17">
         <v>861146418</v>
@@ -2963,7 +2954,7 @@
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>27</v>
@@ -2978,7 +2969,7 @@
         <v>17889769490</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J14" s="17">
         <v>2904835056</v>
@@ -2994,13 +2985,13 @@
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>35</v>
@@ -3009,7 +3000,7 @@
         <v>13524744272</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J15" s="4">
         <v>1281381039</v>
@@ -3028,16 +3019,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>29</v>
@@ -3046,7 +3037,7 @@
         <v>19331731290</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="4">
         <v>1903157075</v>
@@ -3055,7 +3046,7 @@
         <v>31</v>
       </c>
       <c r="L16" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M16" s="32"/>
     </row>
@@ -3064,13 +3055,13 @@
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>29</v>
@@ -3079,7 +3070,7 @@
         <v>15853951259</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" s="4">
         <v>1259799962</v>
@@ -3093,13 +3084,13 @@
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F18" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>29</v>
@@ -3108,7 +3099,7 @@
         <v>18337021782</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J18" s="4">
         <v>2413792492</v>
@@ -3125,10 +3116,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>82</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>83</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>27</v>
@@ -3143,7 +3134,7 @@
         <v>18976534806</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J19" s="17">
         <v>2106777958</v>
@@ -3152,7 +3143,7 @@
         <v>31</v>
       </c>
       <c r="L19" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19" s="32" t="s">
         <v>32</v>
@@ -3163,7 +3154,7 @@
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>27</v>
@@ -3178,7 +3169,7 @@
         <v>15348851215</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J20" s="17">
         <v>3057543683</v>
@@ -3186,7 +3177,7 @@
       <c r="K20" s="31"/>
       <c r="L20" s="32"/>
       <c r="M20" s="41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:13">
@@ -3194,7 +3185,7 @@
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
       <c r="D21" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>27</v>
@@ -3209,13 +3200,13 @@
         <v>18948563613</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J21" s="23">
         <v>1392232887</v>
       </c>
       <c r="K21" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M21" s="32"/>
     </row>
@@ -3227,10 +3218,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>91</v>
-      </c>
-      <c r="D22" s="17" t="s">
-        <v>92</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>43</v>
@@ -3245,7 +3236,7 @@
         <v>18990689551</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J22" s="17">
         <v>3127778480</v>
@@ -3265,7 +3256,7 @@
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>38</v>
@@ -3280,7 +3271,7 @@
         <v>13037297820</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="17">
         <v>3062546644</v>
@@ -3296,22 +3287,22 @@
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>43</v>
       </c>
       <c r="F24" s="26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>98</v>
+      <c r="H24" s="17">
+        <v>18789781808</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J24" s="17">
         <v>2215376397</v>
@@ -3328,16 +3319,16 @@
         <v>7</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F25" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>29</v>
@@ -3346,13 +3337,13 @@
         <v>15197637933</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J25" s="17">
         <v>3070167413</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M25" s="32"/>
     </row>
@@ -3361,13 +3352,13 @@
       <c r="B26" s="28"/>
       <c r="C26" s="27"/>
       <c r="D26" s="26" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E26" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F26" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>29</v>
@@ -3376,7 +3367,7 @@
         <v>18907637842</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J26" s="17">
         <v>2902413207</v>
@@ -3389,13 +3380,13 @@
       <c r="B27" s="28"/>
       <c r="C27" s="27"/>
       <c r="D27" s="26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="26" t="s">
         <v>27</v>
       </c>
       <c r="F27" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>29</v>
@@ -3404,7 +3395,7 @@
         <v>18889900903</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J27" s="17">
         <v>1604088171</v>
@@ -3417,13 +3408,13 @@
       <c r="B28" s="28"/>
       <c r="C28" s="27"/>
       <c r="D28" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F28" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>29</v>
@@ -3432,7 +3423,7 @@
         <v>18436187870</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J28" s="17">
         <v>3182811175</v>
@@ -3445,13 +3436,13 @@
       <c r="B29" s="20"/>
       <c r="C29" s="19"/>
       <c r="D29" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E29" s="17" t="s">
         <v>27</v>
       </c>
       <c r="F29" s="26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>29</v>
@@ -3460,7 +3451,7 @@
         <v>17700956685</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J29" s="17">
         <v>2270032682</v>
@@ -3537,7 +3528,7 @@
   <sheetPr/>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" topLeftCell="N1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E14" sqref="E14"/>
@@ -3566,58 +3557,58 @@
   <sheetData>
     <row r="1" ht="23.25" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" ht="22.5" spans="1:19">
@@ -3629,31 +3620,31 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>131</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>133</v>
       </c>
       <c r="J2" s="9">
         <v>15217630408</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M2" s="9">
         <v>15773206100</v>
@@ -3686,52 +3677,52 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:19">
@@ -3743,52 +3734,52 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:19">
@@ -3800,52 +3791,52 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="I5" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="J5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="P5" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="Q5" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="S5" s="11" t="s">
         <v>164</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" ht="22.5" spans="1:19">
@@ -3857,43 +3848,43 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="I6" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>170</v>
       </c>
       <c r="J6" s="9">
         <v>60123</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M6" s="9">
         <v>920391</v>
       </c>
-      <c r="N6" s="51" t="s">
-        <v>173</v>
+      <c r="N6" s="50" t="s">
+        <v>171</v>
       </c>
       <c r="O6" s="9">
         <v>920271</v>
       </c>
-      <c r="P6" s="51" t="s">
-        <v>174</v>
+      <c r="P6" s="50" t="s">
+        <v>172</v>
       </c>
       <c r="Q6" s="9">
         <v>60029</v>
@@ -3901,8 +3892,8 @@
       <c r="R6" s="9">
         <v>60043</v>
       </c>
-      <c r="S6" s="51" t="s">
-        <v>175</v>
+      <c r="S6" s="50" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:5">
@@ -3914,13 +3905,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
@@ -3932,13 +3923,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:15">
@@ -3950,13 +3941,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L9" s="13"/>
       <c r="O9" s="13"/>

--- a/03备赛/备赛名单.xlsx
+++ b/03备赛/备赛名单.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="174">
   <si>
     <t>海南师范大学第十九届全国大学生智能汽车竞赛报名队伍</t>
   </si>
@@ -277,15 +277,6 @@
   </si>
   <si>
     <t>3057543683@qq.com</t>
-  </si>
-  <si>
-    <t>陈楠锦</t>
-  </si>
-  <si>
-    <t>1392232887@qq.com</t>
-  </si>
-  <si>
-    <t>不出现</t>
   </si>
   <si>
     <t>独轮总能队</t>
@@ -559,7 +550,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,12 +594,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1309,152 +1294,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1522,85 +1507,79 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2145,332 +2124,332 @@
   </cols>
   <sheetData>
     <row r="1" ht="82" customHeight="1" spans="1:18">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
     </row>
     <row r="2" ht="35.25" spans="1:18">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" ht="35.25" spans="1:18">
-      <c r="A3" s="44">
+      <c r="A3" s="42">
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="42">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
     </row>
     <row r="4" ht="35.25" spans="1:18">
-      <c r="A4" s="44">
+      <c r="A4" s="42">
         <f t="shared" ref="A4:A11" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="42">
         <v>3</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
     </row>
     <row r="5" ht="35.25" spans="1:18">
-      <c r="A5" s="44">
+      <c r="A5" s="42">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="42">
         <v>1</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" ht="35.25" spans="1:18">
-      <c r="A6" s="44">
+      <c r="A6" s="42">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="42">
         <v>1</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
     </row>
     <row r="7" ht="35.25" spans="1:18">
-      <c r="A7" s="44">
+      <c r="A7" s="42">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="44">
+      <c r="C7" s="42">
         <v>4</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
     </row>
     <row r="8" ht="35.25" spans="1:18">
-      <c r="A8" s="44">
+      <c r="A8" s="42">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="44">
+      <c r="C8" s="42">
         <v>3</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
     </row>
     <row r="9" ht="35.25" spans="1:18">
-      <c r="A9" s="44">
+      <c r="A9" s="42">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="44">
+      <c r="C9" s="42">
         <v>2</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
     </row>
     <row r="10" ht="35.25" spans="1:18">
-      <c r="A10" s="44">
+      <c r="A10" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="42">
         <v>6</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
     </row>
     <row r="11" ht="35.25" spans="1:18">
-      <c r="A11" s="47"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="42">
         <v>21</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
     </row>
     <row r="12" ht="35.25" spans="1:18">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2484,12 +2463,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
@@ -2525,7 +2504,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
-      <c r="K1" s="29"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" ht="19.5" spans="1:13">
       <c r="A2" s="16" t="s">
@@ -2552,7 +2531,7 @@
       <c r="H2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="29" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="16" t="s">
@@ -2584,7 +2563,7 @@
       <c r="E3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="17" t="s">
@@ -2599,13 +2578,13 @@
       <c r="J3" s="17">
         <v>3205223928</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2619,7 +2598,7 @@
       <c r="E4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -2634,9 +2613,9 @@
       <c r="J4" s="17">
         <v>2157646685</v>
       </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32" t="s">
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2650,7 +2629,7 @@
       <c r="E5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="17" t="s">
@@ -2665,9 +2644,9 @@
       <c r="J5" s="17">
         <v>1029867213</v>
       </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32" t="s">
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2687,7 +2666,7 @@
       <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>44</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -2702,13 +2681,13 @@
       <c r="J6" s="4">
         <v>1753373622</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2722,7 +2701,7 @@
       <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="25" t="s">
         <v>44</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -2737,9 +2716,9 @@
       <c r="J7" s="4">
         <v>1976640167</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2753,7 +2732,7 @@
       <c r="E8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="25" t="s">
         <v>50</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -2768,9 +2747,9 @@
       <c r="J8" s="4">
         <v>2854908154</v>
       </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2784,7 +2763,7 @@
       <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="25" t="s">
         <v>44</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -2799,9 +2778,9 @@
       <c r="J9" s="4">
         <v>3474583090</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32" t="s">
+      <c r="K9" s="32"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2821,7 +2800,7 @@
       <c r="E10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G10" s="17" t="s">
@@ -2836,13 +2815,13 @@
       <c r="J10" s="17">
         <v>1469444875</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="32" t="s">
+      <c r="L10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="32" t="s">
+      <c r="M10" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2856,7 +2835,7 @@
       <c r="E11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G11" s="17" t="s">
@@ -2871,9 +2850,9 @@
       <c r="J11" s="17">
         <v>2763142268</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32" t="s">
+      <c r="K11" s="34"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2887,7 +2866,7 @@
       <c r="E12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="17" t="s">
@@ -2902,9 +2881,9 @@
       <c r="J12" s="17">
         <v>2856427359</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="41" t="s">
+      <c r="K12" s="34"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="39" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2924,7 +2903,7 @@
       <c r="E13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G13" s="17" t="s">
@@ -2939,13 +2918,13 @@
       <c r="J13" s="17">
         <v>861146418</v>
       </c>
-      <c r="K13" s="31" t="s">
+      <c r="K13" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L13" s="32" t="s">
+      <c r="L13" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2959,7 +2938,7 @@
       <c r="E14" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="17" t="s">
@@ -2974,9 +2953,9 @@
       <c r="J14" s="17">
         <v>2904835056</v>
       </c>
-      <c r="K14" s="31"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32" t="s">
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2990,7 +2969,7 @@
       <c r="E15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="25" t="s">
         <v>70</v>
       </c>
       <c r="G15" s="4" t="s">
@@ -3005,9 +2984,9 @@
       <c r="J15" s="4">
         <v>1281381039</v>
       </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32" t="s">
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3027,7 +3006,7 @@
       <c r="E16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G16" s="4" t="s">
@@ -3042,13 +3021,13 @@
       <c r="J16" s="4">
         <v>1903157075</v>
       </c>
-      <c r="K16" s="31" t="s">
+      <c r="K16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="36" t="s">
+      <c r="L16" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M16" s="32"/>
+      <c r="M16" s="31"/>
     </row>
     <row r="17" ht="15" spans="1:13">
       <c r="A17" s="17"/>
@@ -3060,7 +3039,7 @@
       <c r="E17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="4" t="s">
@@ -3075,9 +3054,9 @@
       <c r="J17" s="4">
         <v>1259799962</v>
       </c>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="32"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="31"/>
     </row>
     <row r="18" ht="15" spans="1:13">
       <c r="A18" s="17"/>
@@ -3089,7 +3068,7 @@
       <c r="E18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -3104,9 +3083,9 @@
       <c r="J18" s="4">
         <v>2413792492</v>
       </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="32"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="31"/>
     </row>
     <row r="19" ht="15" spans="1:13">
       <c r="A19" s="17">
@@ -3124,7 +3103,7 @@
       <c r="E19" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G19" s="17" t="s">
@@ -3139,13 +3118,13 @@
       <c r="J19" s="17">
         <v>2106777958</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="32" t="s">
+      <c r="L19" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="M19" s="32" t="s">
+      <c r="M19" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3159,7 +3138,7 @@
       <c r="E20" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G20" s="17" t="s">
@@ -3174,80 +3153,81 @@
       <c r="J20" s="17">
         <v>3057543683</v>
       </c>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="41" t="s">
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="39" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" ht="17.25" spans="1:13">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="23" t="s">
+    <row r="21" ht="15" spans="1:13">
+      <c r="A21" s="17">
+        <v>7</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="23" t="s">
+      <c r="D21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="23">
-        <v>18948563613</v>
+      <c r="H21" s="17">
+        <v>18990689551</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="23">
-        <v>1392232887</v>
-      </c>
-      <c r="K21" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="32"/>
+      <c r="J21" s="17">
+        <v>3127778480</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="M21" s="31" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" ht="15" spans="1:13">
-      <c r="A22" s="17">
-        <v>7</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="17" t="s">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>91</v>
-      </c>
       <c r="E22" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="25" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="17">
-        <v>18990689551</v>
+        <v>13037297820</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J22" s="17">
-        <v>3127778480</v>
-      </c>
-      <c r="K22" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="L22" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" s="32" t="s">
+        <v>3062546644</v>
+      </c>
+      <c r="K22" s="32"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3256,208 +3236,177 @@
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="25" t="s">
         <v>93</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="26" t="s">
-        <v>39</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H23" s="17">
-        <v>13037297820</v>
+        <v>18789781808</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J23" s="17">
-        <v>3062546644</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32" t="s">
-        <v>54</v>
-      </c>
+        <v>2215376397</v>
+      </c>
+      <c r="K23" s="32"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" ht="15" spans="1:13">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
+      <c r="A24" s="23">
+        <v>8</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="D24" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="E24" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="17">
-        <v>18789781808</v>
+        <v>15197637933</v>
       </c>
       <c r="I24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="17">
+        <v>3070167413</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" s="31"/>
+    </row>
+    <row r="25" ht="15" spans="1:13">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="J24" s="17">
-        <v>2215376397</v>
-      </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-    </row>
-    <row r="25" ht="15" spans="1:13">
-      <c r="A25" s="24">
-        <v>8</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="26" t="s">
+      <c r="G25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="17">
+        <v>18907637842</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J25" s="17">
+        <v>2902413207</v>
+      </c>
+      <c r="K25" s="37"/>
+      <c r="M25" s="31"/>
+    </row>
+    <row r="26" ht="15" spans="1:13">
+      <c r="A26" s="26"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="26" t="s">
+      <c r="F26" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="17">
-        <v>15197637933</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="J25" s="17">
-        <v>3070167413</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" s="32"/>
-    </row>
-    <row r="26" ht="15" spans="1:13">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26" t="s">
+      <c r="H26" s="17">
+        <v>18889900903</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="J26" s="17">
+        <v>1604088171</v>
+      </c>
+      <c r="K26" s="37"/>
+      <c r="M26" s="31"/>
+    </row>
+    <row r="27" ht="15" spans="1:13">
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="26" t="s">
+      <c r="F27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="17">
-        <v>18907637842</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="J26" s="17">
-        <v>2902413207</v>
-      </c>
-      <c r="K26" s="38"/>
-      <c r="M26" s="32"/>
-    </row>
-    <row r="27" ht="15" spans="1:13">
-      <c r="A27" s="27"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26" t="s">
+      <c r="H27" s="17">
+        <v>18436187870</v>
+      </c>
+      <c r="I27" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G27" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="H27" s="17">
-        <v>18889900903</v>
-      </c>
-      <c r="I27" s="4" t="s">
+      <c r="J27" s="17">
+        <v>3182811175</v>
+      </c>
+      <c r="K27" s="37"/>
+      <c r="M27" s="31"/>
+    </row>
+    <row r="28" ht="15" spans="1:13">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="J27" s="17">
-        <v>1604088171</v>
-      </c>
-      <c r="K27" s="38"/>
-      <c r="M27" s="32"/>
-    </row>
-    <row r="28" ht="15" spans="1:13">
-      <c r="A28" s="27"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="26" t="s">
-        <v>100</v>
+      <c r="F28" s="25" t="s">
+        <v>97</v>
       </c>
       <c r="G28" s="17" t="s">
         <v>29</v>
       </c>
       <c r="H28" s="17">
-        <v>18436187870</v>
+        <v>17700956685</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J28" s="17">
-        <v>3182811175</v>
+        <v>2270032682</v>
       </c>
       <c r="K28" s="38"/>
-      <c r="M28" s="32"/>
-    </row>
-    <row r="29" ht="15" spans="1:13">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H29" s="17">
-        <v>17700956685</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="J29" s="17">
-        <v>2270032682</v>
-      </c>
-      <c r="K29" s="39"/>
-      <c r="M29" s="32"/>
+      <c r="M28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -3467,33 +3416,33 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B28"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C29"/>
-    <mergeCell ref="K25:K29"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C28"/>
+    <mergeCell ref="K24:K28"/>
     <mergeCell ref="L3:L5"/>
     <mergeCell ref="L6:L9"/>
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L16:L18"/>
     <mergeCell ref="L19:L20"/>
-    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="L21:L23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" display="15522999550@163.com" tooltip="mailto:15522999550@163.com"/>
@@ -3503,20 +3452,19 @@
     <hyperlink ref="I18" r:id="rId5" display="18337021782@163.com"/>
     <hyperlink ref="I13" r:id="rId6" display="861146418@qq.com"/>
     <hyperlink ref="I14" r:id="rId7" display="2904835056@qq.com"/>
-    <hyperlink ref="I25" r:id="rId8" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="J25" r:id="rId8" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
-    <hyperlink ref="I26" r:id="rId9" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
-    <hyperlink ref="I27" r:id="rId10" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
+    <hyperlink ref="I24" r:id="rId8" display="3070167413@qq.com" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="J24" r:id="rId8" display="3070167413" tooltip="mailto:3070167413@qq.com"/>
+    <hyperlink ref="I25" r:id="rId9" display="2902413207@qq.com" tooltip="mailto:2902413207@qq.com"/>
+    <hyperlink ref="I26" r:id="rId10" display="1604088171@qq.com" tooltip="mailto:1604088171@qq.com"/>
     <hyperlink ref="I3" r:id="rId11" display="3205223928@qq.com"/>
     <hyperlink ref="I10" r:id="rId12" display="1469444875@qq.com"/>
     <hyperlink ref="I11" r:id="rId13" display="2763142268@qq.com"/>
     <hyperlink ref="I12" r:id="rId14" display="2856427359@qq.com"/>
-    <hyperlink ref="I28" r:id="rId15" display="3182811175@qq.com"/>
-    <hyperlink ref="I22" r:id="rId16" display="3127778480@qq.com"/>
+    <hyperlink ref="I27" r:id="rId15" display="3182811175@qq.com"/>
+    <hyperlink ref="I21" r:id="rId16" display="3127778480@qq.com"/>
     <hyperlink ref="I5" r:id="rId17" display="1029867213@qq.com"/>
     <hyperlink ref="I8" r:id="rId18" display="2854908154@qq.com" tooltip="mailto:2854908154@qq.com"/>
-    <hyperlink ref="I21" r:id="rId19" display="1392232887@qq.com"/>
-    <hyperlink ref="I15" r:id="rId20" display="1281381039@qq.com"/>
+    <hyperlink ref="I15" r:id="rId19" display="1281381039@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3557,58 +3505,58 @@
   <sheetData>
     <row r="1" ht="23.25" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>123</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="S1" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="2" ht="22.5" spans="1:19">
@@ -3620,31 +3568,31 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="J2" s="9">
         <v>15217630408</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M2" s="9">
         <v>15773206100</v>
@@ -3677,52 +3625,52 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="M3" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="O3" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="Q3" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="R3" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="4" ht="22.5" spans="1:19">
@@ -3734,52 +3682,52 @@
         <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" ht="45" spans="1:19">
@@ -3791,52 +3739,52 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="J5" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="K5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="L5" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="M5" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="N5" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="O5" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="Q5" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="O5" s="9" t="s">
+      <c r="R5" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="S5" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" ht="22.5" spans="1:19">
@@ -3848,43 +3796,43 @@
         <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="J6" s="9">
         <v>60123</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M6" s="9">
         <v>920391</v>
       </c>
-      <c r="N6" s="50" t="s">
-        <v>171</v>
+      <c r="N6" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="O6" s="9">
         <v>920271</v>
       </c>
-      <c r="P6" s="50" t="s">
-        <v>172</v>
+      <c r="P6" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="Q6" s="9">
         <v>60029</v>
@@ -3892,8 +3840,8 @@
       <c r="R6" s="9">
         <v>60043</v>
       </c>
-      <c r="S6" s="50" t="s">
-        <v>173</v>
+      <c r="S6" s="48" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:5">
@@ -3905,13 +3853,13 @@
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
@@ -3923,13 +3871,13 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="E8" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" ht="15.75" spans="1:15">
@@ -3941,13 +3889,13 @@
         <v>7</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="L9" s="13"/>
       <c r="O9" s="13"/>
